--- a/rugby_results_urc_2024_2025.xlsx
+++ b/rugby_results_urc_2024_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\rugby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B769C186-0C6F-4327-B8A1-6EF7310314AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5E205F-BAA5-43CB-92CC-6A866F809848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F91CF1C2-8A5F-42AD-9533-1E11BD16044D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
   <si>
     <t>Stormers</t>
   </si>
@@ -138,12 +138,6 @@
     <t>Turnover</t>
   </si>
   <si>
-    <t>home_turnovers_conceded</t>
-  </si>
-  <si>
-    <t>away_turnovers_conceded</t>
-  </si>
-  <si>
     <t>Totals</t>
   </si>
   <si>
@@ -151,6 +145,96 @@
   </si>
   <si>
     <t>away_win</t>
+  </si>
+  <si>
+    <t>MOTM</t>
+  </si>
+  <si>
+    <t>Jack Walsh</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Callum Sheedy</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Jamison Gibson-Park</t>
+  </si>
+  <si>
+    <t>Dave McCann</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>Alex Nankivell</t>
+  </si>
+  <si>
+    <t>Max Deegan</t>
+  </si>
+  <si>
+    <t>Dave Heffernan</t>
+  </si>
+  <si>
+    <t>Craig Casey</t>
+  </si>
+  <si>
+    <t>Sione Tuipulotu</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Taine Basham</t>
+  </si>
+  <si>
+    <t>Rabz Maxwane</t>
+  </si>
+  <si>
+    <t>Kyle Steyn</t>
+  </si>
+  <si>
+    <t>Dan Thomas</t>
+  </si>
+  <si>
+    <t>Reuben Morgan-Williams</t>
+  </si>
+  <si>
+    <t>Jack Conan</t>
+  </si>
+  <si>
+    <t>Cathal Forde</t>
+  </si>
+  <si>
+    <t>Caelin Doris</t>
+  </si>
+  <si>
+    <t>Willie le Roux</t>
+  </si>
+  <si>
+    <t>Ben Muncaster</t>
+  </si>
+  <si>
+    <t>Rhyno Smith</t>
+  </si>
+  <si>
+    <t>John Cooney</t>
+  </si>
+  <si>
+    <t>RG Snyman</t>
+  </si>
+  <si>
+    <t>Francke Horn</t>
+  </si>
+  <si>
+    <t>Thomas Gallo</t>
+  </si>
+  <si>
+    <t>Jacob Stockdale</t>
   </si>
 </sst>
 </file>
@@ -503,13 +587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC0A36C-4A19-4E44-9FC9-6681C3DBEBC6}">
-  <dimension ref="A1:Z233"/>
+  <dimension ref="A1:AA233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,13 +621,13 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
       <c r="J1" t="s">
         <v>22</v>
@@ -591,10 +675,10 @@
         <v>36</v>
       </c>
       <c r="Y1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -1498,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1541,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1584,7 +1668,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1627,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1670,7 +1754,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -1713,7 +1797,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1756,7 +1840,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -1799,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1842,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1893,8 +1977,14 @@
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1945,8 +2035,14 @@
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1997,8 +2093,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2049,8 +2151,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y44" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2102,7 +2210,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2153,8 +2261,17 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y46" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2173,16 +2290,46 @@
       <c r="F47">
         <v>-13.5</v>
       </c>
+      <c r="M47">
+        <v>42</v>
+      </c>
+      <c r="N47">
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <v>10</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <v>9</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47">
+        <v>7</v>
+      </c>
+      <c r="T47">
+        <v>16</v>
+      </c>
       <c r="W47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="X47">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-4</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2196,21 +2343,51 @@
         <v>6</v>
       </c>
       <c r="E48">
-        <v>-27.5</v>
+        <v>-30.5</v>
       </c>
       <c r="F48">
         <v>-27.5</v>
       </c>
+      <c r="M48">
+        <v>34</v>
+      </c>
+      <c r="N48">
+        <v>6</v>
+      </c>
+      <c r="O48">
+        <v>10</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>8</v>
+      </c>
+      <c r="R48">
+        <v>10</v>
+      </c>
+      <c r="S48">
+        <v>11</v>
+      </c>
+      <c r="T48">
+        <v>10</v>
+      </c>
       <c r="W48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2229,16 +2406,40 @@
       <c r="F49">
         <v>-6.5</v>
       </c>
+      <c r="M49">
+        <v>35</v>
+      </c>
+      <c r="N49">
+        <v>22</v>
+      </c>
+      <c r="O49">
+        <v>15</v>
+      </c>
+      <c r="P49">
+        <v>8</v>
+      </c>
+      <c r="Q49">
+        <v>6</v>
+      </c>
+      <c r="R49">
+        <v>7</v>
+      </c>
+      <c r="S49">
+        <v>4</v>
+      </c>
+      <c r="T49">
+        <v>11</v>
+      </c>
       <c r="W49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="X49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2257,16 +2458,40 @@
       <c r="F50">
         <v>-9.5</v>
       </c>
+      <c r="M50">
+        <v>22</v>
+      </c>
+      <c r="N50">
+        <v>16</v>
+      </c>
+      <c r="O50">
+        <v>12</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <v>5</v>
+      </c>
+      <c r="R50">
+        <v>10</v>
+      </c>
+      <c r="S50">
+        <v>13</v>
+      </c>
+      <c r="T50">
+        <v>11</v>
+      </c>
       <c r="W50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X50">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2280,21 +2505,45 @@
         <v>11</v>
       </c>
       <c r="E51">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="F51">
         <v>14.5</v>
       </c>
+      <c r="M51">
+        <v>42</v>
+      </c>
+      <c r="N51">
+        <v>33</v>
+      </c>
+      <c r="O51">
+        <v>8</v>
+      </c>
+      <c r="P51">
+        <v>5</v>
+      </c>
+      <c r="Q51">
+        <v>8</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>6</v>
+      </c>
+      <c r="T51">
+        <v>7</v>
+      </c>
       <c r="W51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2313,16 +2562,46 @@
       <c r="F52">
         <v>-2.5</v>
       </c>
+      <c r="M52">
+        <v>15</v>
+      </c>
+      <c r="N52">
+        <v>24</v>
+      </c>
+      <c r="O52">
+        <v>8</v>
+      </c>
+      <c r="P52">
+        <v>6</v>
+      </c>
+      <c r="Q52">
+        <v>6</v>
+      </c>
+      <c r="R52">
+        <v>6</v>
+      </c>
+      <c r="S52">
+        <v>12</v>
+      </c>
+      <c r="T52">
+        <v>9</v>
+      </c>
       <c r="W52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y52" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2341,16 +2620,46 @@
       <c r="F53">
         <v>-6.5</v>
       </c>
+      <c r="M53">
+        <v>36</v>
+      </c>
+      <c r="N53">
+        <v>30</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+      <c r="P53">
+        <v>5</v>
+      </c>
+      <c r="Q53">
+        <v>6</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>9</v>
+      </c>
+      <c r="T53">
+        <v>10</v>
+      </c>
       <c r="W53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-4</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2364,27 +2673,92 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F54">
         <v>2.5</v>
       </c>
+      <c r="M54">
+        <v>37</v>
+      </c>
+      <c r="N54">
+        <v>24</v>
+      </c>
+      <c r="O54">
+        <v>7</v>
+      </c>
+      <c r="P54">
+        <v>7</v>
+      </c>
+      <c r="Q54">
+        <v>5</v>
+      </c>
+      <c r="R54">
+        <v>7</v>
+      </c>
+      <c r="S54">
+        <v>9</v>
+      </c>
+      <c r="T54">
+        <v>11</v>
+      </c>
       <c r="W54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X54">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" ref="B48:B111" si="2">B54+360</f>
-        <v>45923</v>
+        <v>45569</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>7.5</v>
+      </c>
+      <c r="F55">
+        <v>5.5</v>
+      </c>
+      <c r="M55">
+        <v>23</v>
+      </c>
+      <c r="N55">
+        <v>24</v>
+      </c>
+      <c r="O55">
+        <v>3</v>
+      </c>
+      <c r="P55">
+        <v>5</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <v>12</v>
+      </c>
+      <c r="T55">
+        <v>12</v>
       </c>
       <c r="W55">
         <f t="shared" si="0"/>
@@ -2392,431 +2766,1375 @@
       </c>
       <c r="X55">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" si="2"/>
-        <v>46283</v>
+        <v>45569</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56">
+        <v>6.5</v>
+      </c>
+      <c r="F56">
+        <v>7.5</v>
+      </c>
+      <c r="M56">
+        <v>36</v>
+      </c>
+      <c r="N56">
+        <v>52</v>
+      </c>
+      <c r="O56">
+        <v>8</v>
+      </c>
+      <c r="P56">
+        <v>16</v>
+      </c>
+      <c r="Q56">
+        <v>7</v>
+      </c>
+      <c r="R56">
+        <v>10</v>
+      </c>
+      <c r="S56">
+        <v>8</v>
+      </c>
+      <c r="T56">
+        <v>7</v>
       </c>
       <c r="W56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" si="2"/>
-        <v>46643</v>
+        <v>45570</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>-7.5</v>
+      </c>
+      <c r="F57">
+        <v>-8.5</v>
+      </c>
+      <c r="M57">
+        <v>55</v>
+      </c>
+      <c r="N57">
+        <v>21</v>
+      </c>
+      <c r="O57">
+        <v>18</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>6</v>
+      </c>
+      <c r="R57">
+        <v>6</v>
+      </c>
+      <c r="S57">
+        <v>10</v>
+      </c>
+      <c r="T57">
+        <v>7</v>
       </c>
       <c r="W57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y57" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" si="2"/>
-        <v>47003</v>
+        <v>45570</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>-18.5</v>
+      </c>
+      <c r="F58">
+        <v>-12.5</v>
+      </c>
+      <c r="M58">
+        <v>47</v>
+      </c>
+      <c r="N58">
+        <v>21</v>
+      </c>
+      <c r="O58">
+        <v>7</v>
+      </c>
+      <c r="P58">
+        <v>7</v>
+      </c>
+      <c r="Q58">
+        <v>6</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>9</v>
+      </c>
+      <c r="T58">
+        <v>14</v>
       </c>
       <c r="W58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="X58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" si="2"/>
-        <v>47363</v>
+        <v>45570</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>17.5</v>
+      </c>
+      <c r="F59">
+        <v>12.5</v>
+      </c>
+      <c r="M59">
+        <v>5</v>
+      </c>
+      <c r="N59">
+        <v>35</v>
+      </c>
+      <c r="O59">
+        <v>5</v>
+      </c>
+      <c r="P59">
+        <v>8</v>
+      </c>
+      <c r="Q59">
+        <v>5</v>
+      </c>
+      <c r="R59">
+        <v>12</v>
+      </c>
+      <c r="S59">
+        <v>6</v>
+      </c>
+      <c r="T59">
+        <v>13</v>
       </c>
       <c r="W59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="X59">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" si="2"/>
-        <v>47723</v>
+        <v>45570</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>7.5</v>
+      </c>
+      <c r="F60">
+        <v>8.5</v>
+      </c>
+      <c r="M60">
+        <v>30</v>
+      </c>
+      <c r="N60">
+        <v>33</v>
+      </c>
+      <c r="O60">
+        <v>4</v>
+      </c>
+      <c r="P60">
+        <v>9</v>
+      </c>
+      <c r="Q60">
+        <v>8</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>13</v>
+      </c>
+      <c r="T60">
+        <v>10</v>
       </c>
       <c r="W60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X60">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-6</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" si="2"/>
-        <v>48083</v>
+        <v>45570</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>9.5</v>
+      </c>
+      <c r="F61">
+        <v>9.5</v>
+      </c>
+      <c r="M61">
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <v>36</v>
+      </c>
+      <c r="O61">
+        <v>3</v>
+      </c>
+      <c r="P61">
+        <v>7</v>
+      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>16</v>
+      </c>
+      <c r="T61">
+        <v>8</v>
       </c>
       <c r="W61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X61">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" si="2"/>
-        <v>48443</v>
+        <v>45570</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>-13.5</v>
+      </c>
+      <c r="F62">
+        <v>-11.5</v>
+      </c>
+      <c r="M62">
+        <v>23</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>5</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>8</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>9</v>
+      </c>
+      <c r="T62">
+        <v>6</v>
       </c>
       <c r="W62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X62">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-7</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
       <c r="B63" s="1">
-        <f t="shared" si="2"/>
-        <v>48803</v>
+        <v>45576</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>-28.5</v>
+      </c>
+      <c r="F63">
+        <v>-27.5</v>
+      </c>
+      <c r="M63">
+        <v>33</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63">
+        <v>13</v>
+      </c>
+      <c r="P63">
+        <v>6</v>
+      </c>
+      <c r="Q63">
+        <v>12</v>
+      </c>
+      <c r="R63">
+        <v>7</v>
+      </c>
+      <c r="S63">
+        <v>12</v>
+      </c>
+      <c r="T63">
+        <v>12</v>
       </c>
       <c r="W63">
-        <f t="shared" ref="W63:W126" si="3">S63-T63</f>
+        <f t="shared" ref="W63:W126" si="2">S63-T63</f>
         <v>0</v>
       </c>
       <c r="X63">
-        <f t="shared" ref="X63:X126" si="4">R63-Q63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+        <f t="shared" ref="X63:X126" si="3">R63-Q63</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4</v>
       </c>
       <c r="B64" s="1">
+        <v>45577</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>-6.5</v>
+      </c>
+      <c r="F64">
+        <v>-8.5</v>
+      </c>
+      <c r="M64">
+        <v>19</v>
+      </c>
+      <c r="N64">
+        <v>25</v>
+      </c>
+      <c r="O64">
+        <v>6</v>
+      </c>
+      <c r="P64">
+        <v>7</v>
+      </c>
+      <c r="Q64">
+        <v>7</v>
+      </c>
+      <c r="R64">
+        <v>8</v>
+      </c>
+      <c r="S64">
+        <v>11</v>
+      </c>
+      <c r="T64">
+        <v>11</v>
+      </c>
+      <c r="W64">
         <f t="shared" si="2"/>
-        <v>49163</v>
-      </c>
-      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
       <c r="B65" s="1">
+        <v>45577</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>-3.5</v>
+      </c>
+      <c r="F65">
+        <v>-2.5</v>
+      </c>
+      <c r="M65">
+        <v>38</v>
+      </c>
+      <c r="N65">
+        <v>10</v>
+      </c>
+      <c r="O65">
+        <v>11</v>
+      </c>
+      <c r="P65">
+        <v>8</v>
+      </c>
+      <c r="Q65">
+        <v>7</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>9</v>
+      </c>
+      <c r="T65">
+        <v>7</v>
+      </c>
+      <c r="W65">
         <f t="shared" si="2"/>
-        <v>49523</v>
-      </c>
-      <c r="W65">
+        <v>2</v>
+      </c>
+      <c r="X65">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-6</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4</v>
       </c>
       <c r="B66" s="1">
+        <v>45577</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>-4.5</v>
+      </c>
+      <c r="F66">
+        <v>-3.5</v>
+      </c>
+      <c r="M66">
+        <v>38</v>
+      </c>
+      <c r="N66">
+        <v>7</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
+      </c>
+      <c r="P66">
+        <v>4</v>
+      </c>
+      <c r="Q66">
+        <v>4</v>
+      </c>
+      <c r="R66">
+        <v>4</v>
+      </c>
+      <c r="S66">
+        <v>6</v>
+      </c>
+      <c r="T66">
+        <v>15</v>
+      </c>
+      <c r="W66">
         <f t="shared" si="2"/>
-        <v>49883</v>
-      </c>
-      <c r="W66">
+        <v>-9</v>
+      </c>
+      <c r="X66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y66" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>4</v>
       </c>
       <c r="B67" s="1">
+        <v>45577</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67">
+        <v>-15.5</v>
+      </c>
+      <c r="F67">
+        <v>-13.5</v>
+      </c>
+      <c r="M67">
+        <v>26</v>
+      </c>
+      <c r="N67">
+        <v>12</v>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+      <c r="P67">
+        <v>9</v>
+      </c>
+      <c r="Q67">
+        <v>6</v>
+      </c>
+      <c r="R67">
+        <v>6</v>
+      </c>
+      <c r="S67">
+        <v>11</v>
+      </c>
+      <c r="T67">
+        <v>11</v>
+      </c>
+      <c r="W67">
         <f t="shared" si="2"/>
-        <v>50243</v>
-      </c>
-      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X67">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y67" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4</v>
       </c>
       <c r="B68" s="1">
+        <v>45577</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>7.5</v>
+      </c>
+      <c r="F68">
+        <v>5.5</v>
+      </c>
+      <c r="M68">
+        <v>19</v>
+      </c>
+      <c r="N68">
+        <v>29</v>
+      </c>
+      <c r="O68">
+        <v>3</v>
+      </c>
+      <c r="P68">
+        <v>7</v>
+      </c>
+      <c r="Q68">
+        <v>4</v>
+      </c>
+      <c r="R68">
+        <v>8</v>
+      </c>
+      <c r="S68">
+        <v>12</v>
+      </c>
+      <c r="T68">
+        <v>9</v>
+      </c>
+      <c r="W68">
         <f t="shared" si="2"/>
-        <v>50603</v>
-      </c>
-      <c r="W68">
+        <v>3</v>
+      </c>
+      <c r="X68">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
       <c r="B69" s="1">
+        <v>45577</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69">
+        <v>-3.5</v>
+      </c>
+      <c r="F69">
+        <v>-4.5</v>
+      </c>
+      <c r="M69">
+        <v>32</v>
+      </c>
+      <c r="N69">
+        <v>27</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>3</v>
+      </c>
+      <c r="Q69">
+        <v>8</v>
+      </c>
+      <c r="R69">
+        <v>8</v>
+      </c>
+      <c r="S69">
+        <v>13</v>
+      </c>
+      <c r="T69">
+        <v>10</v>
+      </c>
+      <c r="W69">
         <f t="shared" si="2"/>
-        <v>50963</v>
-      </c>
-      <c r="W69">
+        <v>3</v>
+      </c>
+      <c r="X69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X69">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y69" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4</v>
       </c>
       <c r="B70" s="1">
+        <v>45578</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>8.5</v>
+      </c>
+      <c r="F70">
+        <v>8.5</v>
+      </c>
+      <c r="M70">
+        <v>19</v>
+      </c>
+      <c r="N70">
+        <v>23</v>
+      </c>
+      <c r="O70">
+        <v>6</v>
+      </c>
+      <c r="P70">
+        <v>9</v>
+      </c>
+      <c r="Q70">
+        <v>6</v>
+      </c>
+      <c r="R70">
+        <v>8</v>
+      </c>
+      <c r="S70">
+        <v>9</v>
+      </c>
+      <c r="T70">
+        <v>5</v>
+      </c>
+      <c r="W70">
         <f t="shared" si="2"/>
-        <v>51323</v>
-      </c>
-      <c r="W70">
+        <v>4</v>
+      </c>
+      <c r="X70">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>5</v>
       </c>
       <c r="B71" s="1">
+        <v>45583</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>-16.5</v>
+      </c>
+      <c r="F71">
+        <v>-10.5</v>
+      </c>
+      <c r="J71">
+        <v>-16.5</v>
+      </c>
+      <c r="M71">
+        <v>36</v>
+      </c>
+      <c r="N71">
+        <v>12</v>
+      </c>
+      <c r="O71">
+        <v>13</v>
+      </c>
+      <c r="P71">
+        <v>4</v>
+      </c>
+      <c r="Q71">
+        <v>4</v>
+      </c>
+      <c r="R71">
+        <v>4</v>
+      </c>
+      <c r="S71">
+        <v>15</v>
+      </c>
+      <c r="T71">
+        <v>13</v>
+      </c>
+      <c r="W71">
         <f t="shared" si="2"/>
-        <v>51683</v>
-      </c>
-      <c r="W71">
+        <v>2</v>
+      </c>
+      <c r="X71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y71" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>5</v>
       </c>
       <c r="B72" s="1">
+        <v>45583</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>9.5</v>
+      </c>
+      <c r="F72">
+        <v>12.5</v>
+      </c>
+      <c r="J72">
+        <v>9.5</v>
+      </c>
+      <c r="M72">
+        <v>23</v>
+      </c>
+      <c r="N72">
+        <v>22</v>
+      </c>
+      <c r="O72">
+        <v>2</v>
+      </c>
+      <c r="P72">
+        <v>4</v>
+      </c>
+      <c r="Q72">
+        <v>7</v>
+      </c>
+      <c r="R72">
+        <v>3</v>
+      </c>
+      <c r="S72">
+        <v>9</v>
+      </c>
+      <c r="T72">
+        <v>10</v>
+      </c>
+      <c r="W72">
         <f t="shared" si="2"/>
-        <v>52043</v>
-      </c>
-      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5</v>
       </c>
       <c r="B73" s="1">
+        <v>45584</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>12.5</v>
+      </c>
+      <c r="F73">
+        <v>13.5</v>
+      </c>
+      <c r="J73">
+        <v>12.5</v>
+      </c>
+      <c r="M73">
+        <v>9</v>
+      </c>
+      <c r="N73">
+        <v>10</v>
+      </c>
+      <c r="O73">
+        <v>3</v>
+      </c>
+      <c r="P73">
+        <v>3</v>
+      </c>
+      <c r="Q73">
+        <v>6</v>
+      </c>
+      <c r="R73">
+        <v>7</v>
+      </c>
+      <c r="S73">
+        <v>10</v>
+      </c>
+      <c r="T73">
+        <v>10</v>
+      </c>
+      <c r="W73">
         <f t="shared" si="2"/>
-        <v>52403</v>
-      </c>
-      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>5</v>
       </c>
       <c r="B74" s="1">
+        <v>45584</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>-8.5</v>
+      </c>
+      <c r="F74">
+        <v>-6.5</v>
+      </c>
+      <c r="J74">
+        <v>-9.5</v>
+      </c>
+      <c r="M74">
+        <v>28</v>
+      </c>
+      <c r="N74">
+        <v>24</v>
+      </c>
+      <c r="O74">
+        <v>3</v>
+      </c>
+      <c r="P74">
+        <v>8</v>
+      </c>
+      <c r="Q74">
+        <v>4</v>
+      </c>
+      <c r="R74">
+        <v>4</v>
+      </c>
+      <c r="S74">
+        <v>8</v>
+      </c>
+      <c r="T74">
+        <v>12</v>
+      </c>
+      <c r="W74">
         <f t="shared" si="2"/>
-        <v>52763</v>
-      </c>
-      <c r="W74">
+        <v>-4</v>
+      </c>
+      <c r="X74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X74">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>5</v>
       </c>
       <c r="B75" s="1">
+        <v>45584</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>-3.5</v>
+      </c>
+      <c r="F75">
+        <v>-7.5</v>
+      </c>
+      <c r="J75">
+        <v>-3.5</v>
+      </c>
+      <c r="M75">
+        <v>34</v>
+      </c>
+      <c r="N75">
+        <v>19</v>
+      </c>
+      <c r="O75">
+        <v>7</v>
+      </c>
+      <c r="P75">
+        <v>2</v>
+      </c>
+      <c r="Q75">
+        <v>3</v>
+      </c>
+      <c r="R75">
+        <v>5</v>
+      </c>
+      <c r="S75">
+        <v>10</v>
+      </c>
+      <c r="T75">
+        <v>11</v>
+      </c>
+      <c r="W75">
         <f t="shared" si="2"/>
-        <v>53123</v>
-      </c>
-      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5</v>
       </c>
       <c r="B76" s="1">
+        <v>45584</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76">
+        <v>-14.5</v>
+      </c>
+      <c r="F76">
+        <v>-12.5</v>
+      </c>
+      <c r="J76">
+        <v>-13.5</v>
+      </c>
+      <c r="M76">
+        <v>27</v>
+      </c>
+      <c r="N76">
+        <v>8</v>
+      </c>
+      <c r="O76">
+        <v>12</v>
+      </c>
+      <c r="P76">
+        <v>3</v>
+      </c>
+      <c r="Q76">
+        <v>8</v>
+      </c>
+      <c r="R76">
+        <v>5</v>
+      </c>
+      <c r="S76">
+        <v>11</v>
+      </c>
+      <c r="T76">
+        <v>16</v>
+      </c>
+      <c r="W76">
         <f t="shared" si="2"/>
-        <v>53483</v>
-      </c>
-      <c r="W76">
+        <v>-5</v>
+      </c>
+      <c r="X76">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5</v>
       </c>
       <c r="B77" s="1">
+        <v>45584</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77">
+        <v>6.5</v>
+      </c>
+      <c r="F77">
+        <v>9.5</v>
+      </c>
+      <c r="J77">
+        <v>6.5</v>
+      </c>
+      <c r="M77">
+        <v>12</v>
+      </c>
+      <c r="N77">
+        <v>33</v>
+      </c>
+      <c r="O77">
+        <v>12</v>
+      </c>
+      <c r="P77">
+        <v>12</v>
+      </c>
+      <c r="Q77">
+        <v>4</v>
+      </c>
+      <c r="R77">
+        <v>7</v>
+      </c>
+      <c r="S77">
+        <v>10</v>
+      </c>
+      <c r="T77">
+        <v>7</v>
+      </c>
+      <c r="W77">
         <f t="shared" si="2"/>
-        <v>53843</v>
-      </c>
-      <c r="W77">
+        <v>3</v>
+      </c>
+      <c r="X77">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5</v>
       </c>
       <c r="B78" s="1">
+        <v>45584</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>5.5</v>
+      </c>
+      <c r="F78">
+        <v>3.5</v>
+      </c>
+      <c r="J78">
+        <v>5.5</v>
+      </c>
+      <c r="M78">
+        <v>21</v>
+      </c>
+      <c r="N78">
+        <v>31</v>
+      </c>
+      <c r="O78">
+        <v>6</v>
+      </c>
+      <c r="P78">
+        <v>3</v>
+      </c>
+      <c r="Q78">
+        <v>8</v>
+      </c>
+      <c r="R78">
+        <v>5</v>
+      </c>
+      <c r="S78">
+        <v>12</v>
+      </c>
+      <c r="T78">
+        <v>6</v>
+      </c>
+      <c r="W78">
         <f t="shared" si="2"/>
-        <v>54203</v>
-      </c>
-      <c r="W78">
+        <v>6</v>
+      </c>
+      <c r="X78">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X78">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-3</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>6</v>
       </c>
       <c r="B79" s="1">
+        <v>45590</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>4.5</v>
+      </c>
+      <c r="F79">
+        <v>4.5</v>
+      </c>
+      <c r="W79">
         <f t="shared" si="2"/>
-        <v>54563</v>
-      </c>
-      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X79">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>6</v>
       </c>
       <c r="B80" s="1">
+        <v>45590</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>-18.5</v>
+      </c>
+      <c r="F80">
+        <v>-18.5</v>
+      </c>
+      <c r="W80">
         <f t="shared" si="2"/>
-        <v>54923</v>
-      </c>
-      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X80">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2825,15 +4143,26 @@
         <v>6</v>
       </c>
       <c r="B81" s="1">
+        <v>45591</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81">
+        <v>-7.5</v>
+      </c>
+      <c r="F81">
+        <v>-7.5</v>
+      </c>
+      <c r="W81">
         <f t="shared" si="2"/>
-        <v>55283</v>
-      </c>
-      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X81">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2842,15 +4171,26 @@
         <v>6</v>
       </c>
       <c r="B82" s="1">
+        <v>45591</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <v>-6.5</v>
+      </c>
+      <c r="F82">
+        <v>-6.5</v>
+      </c>
+      <c r="W82">
         <f t="shared" si="2"/>
-        <v>55643</v>
-      </c>
-      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2859,15 +4199,26 @@
         <v>6</v>
       </c>
       <c r="B83" s="1">
+        <v>45591</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>6.5</v>
+      </c>
+      <c r="F83">
+        <v>6.5</v>
+      </c>
+      <c r="W83">
         <f t="shared" si="2"/>
-        <v>56003</v>
-      </c>
-      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2876,15 +4227,26 @@
         <v>6</v>
       </c>
       <c r="B84" s="1">
+        <v>45591</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>-18.5</v>
+      </c>
+      <c r="F84">
+        <v>-18.5</v>
+      </c>
+      <c r="W84">
         <f t="shared" si="2"/>
-        <v>56363</v>
-      </c>
-      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X84">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2893,15 +4255,26 @@
         <v>6</v>
       </c>
       <c r="B85" s="1">
+        <v>45591</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>-17.5</v>
+      </c>
+      <c r="F85">
+        <v>-17.5</v>
+      </c>
+      <c r="W85">
         <f t="shared" si="2"/>
-        <v>56723</v>
-      </c>
-      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X85">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2910,15 +4283,26 @@
         <v>6</v>
       </c>
       <c r="B86" s="1">
+        <v>45591</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>3.5</v>
+      </c>
+      <c r="F86">
+        <v>3.5</v>
+      </c>
+      <c r="W86">
         <f t="shared" si="2"/>
-        <v>57083</v>
-      </c>
-      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X86">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2927,15 +4311,14 @@
         <v>7</v>
       </c>
       <c r="B87" s="1">
+        <v>45599</v>
+      </c>
+      <c r="W87">
         <f t="shared" si="2"/>
-        <v>57443</v>
-      </c>
-      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X87">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2944,15 +4327,15 @@
         <v>7</v>
       </c>
       <c r="B88" s="1">
+        <f t="shared" ref="B88:B111" si="4">B87+360</f>
+        <v>45959</v>
+      </c>
+      <c r="W88">
         <f t="shared" si="2"/>
-        <v>57803</v>
-      </c>
-      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X88">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2961,15 +4344,15 @@
         <v>7</v>
       </c>
       <c r="B89" s="1">
+        <f t="shared" si="4"/>
+        <v>46319</v>
+      </c>
+      <c r="W89">
         <f t="shared" si="2"/>
-        <v>58163</v>
-      </c>
-      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X89">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2978,15 +4361,15 @@
         <v>7</v>
       </c>
       <c r="B90" s="1">
+        <f t="shared" si="4"/>
+        <v>46679</v>
+      </c>
+      <c r="W90">
         <f t="shared" si="2"/>
-        <v>58523</v>
-      </c>
-      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X90">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2995,15 +4378,15 @@
         <v>7</v>
       </c>
       <c r="B91" s="1">
+        <f t="shared" si="4"/>
+        <v>47039</v>
+      </c>
+      <c r="W91">
         <f t="shared" si="2"/>
-        <v>58883</v>
-      </c>
-      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X91">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3012,15 +4395,15 @@
         <v>7</v>
       </c>
       <c r="B92" s="1">
+        <f t="shared" si="4"/>
+        <v>47399</v>
+      </c>
+      <c r="W92">
         <f t="shared" si="2"/>
-        <v>59243</v>
-      </c>
-      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X92">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3029,15 +4412,15 @@
         <v>7</v>
       </c>
       <c r="B93" s="1">
+        <f t="shared" si="4"/>
+        <v>47759</v>
+      </c>
+      <c r="W93">
         <f t="shared" si="2"/>
-        <v>59603</v>
-      </c>
-      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X93">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3046,15 +4429,15 @@
         <v>7</v>
       </c>
       <c r="B94" s="1">
+        <f t="shared" si="4"/>
+        <v>48119</v>
+      </c>
+      <c r="W94">
         <f t="shared" si="2"/>
-        <v>59963</v>
-      </c>
-      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X94">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3063,15 +4446,15 @@
         <v>8</v>
       </c>
       <c r="B95" s="1">
+        <f t="shared" si="4"/>
+        <v>48479</v>
+      </c>
+      <c r="W95">
         <f t="shared" si="2"/>
-        <v>60323</v>
-      </c>
-      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X95">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3080,15 +4463,15 @@
         <v>8</v>
       </c>
       <c r="B96" s="1">
+        <f t="shared" si="4"/>
+        <v>48839</v>
+      </c>
+      <c r="W96">
         <f t="shared" si="2"/>
-        <v>60683</v>
-      </c>
-      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X96">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3097,15 +4480,15 @@
         <v>8</v>
       </c>
       <c r="B97" s="1">
+        <f t="shared" si="4"/>
+        <v>49199</v>
+      </c>
+      <c r="W97">
         <f t="shared" si="2"/>
-        <v>61043</v>
-      </c>
-      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X97">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3114,15 +4497,15 @@
         <v>8</v>
       </c>
       <c r="B98" s="1">
+        <f t="shared" si="4"/>
+        <v>49559</v>
+      </c>
+      <c r="W98">
         <f t="shared" si="2"/>
-        <v>61403</v>
-      </c>
-      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X98">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3131,15 +4514,15 @@
         <v>8</v>
       </c>
       <c r="B99" s="1">
+        <f t="shared" si="4"/>
+        <v>49919</v>
+      </c>
+      <c r="W99">
         <f t="shared" si="2"/>
-        <v>61763</v>
-      </c>
-      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X99">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3148,15 +4531,15 @@
         <v>8</v>
       </c>
       <c r="B100" s="1">
+        <f t="shared" si="4"/>
+        <v>50279</v>
+      </c>
+      <c r="W100">
         <f t="shared" si="2"/>
-        <v>62123</v>
-      </c>
-      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X100">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3165,15 +4548,15 @@
         <v>8</v>
       </c>
       <c r="B101" s="1">
+        <f t="shared" si="4"/>
+        <v>50639</v>
+      </c>
+      <c r="W101">
         <f t="shared" si="2"/>
-        <v>62483</v>
-      </c>
-      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X101">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3182,15 +4565,15 @@
         <v>9</v>
       </c>
       <c r="B102" s="1">
+        <f t="shared" si="4"/>
+        <v>50999</v>
+      </c>
+      <c r="W102">
         <f t="shared" si="2"/>
-        <v>62843</v>
-      </c>
-      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X102">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3199,15 +4582,15 @@
         <v>9</v>
       </c>
       <c r="B103" s="1">
+        <f t="shared" si="4"/>
+        <v>51359</v>
+      </c>
+      <c r="W103">
         <f t="shared" si="2"/>
-        <v>63203</v>
-      </c>
-      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X103">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3216,15 +4599,15 @@
         <v>9</v>
       </c>
       <c r="B104" s="1">
+        <f t="shared" si="4"/>
+        <v>51719</v>
+      </c>
+      <c r="W104">
         <f t="shared" si="2"/>
-        <v>63563</v>
-      </c>
-      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3233,15 +4616,15 @@
         <v>9</v>
       </c>
       <c r="B105" s="1">
+        <f t="shared" si="4"/>
+        <v>52079</v>
+      </c>
+      <c r="W105">
         <f t="shared" si="2"/>
-        <v>63923</v>
-      </c>
-      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X105">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3250,15 +4633,15 @@
         <v>9</v>
       </c>
       <c r="B106" s="1">
+        <f t="shared" si="4"/>
+        <v>52439</v>
+      </c>
+      <c r="W106">
         <f t="shared" si="2"/>
-        <v>64283</v>
-      </c>
-      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X106">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3267,15 +4650,15 @@
         <v>9</v>
       </c>
       <c r="B107" s="1">
+        <f t="shared" si="4"/>
+        <v>52799</v>
+      </c>
+      <c r="W107">
         <f t="shared" si="2"/>
-        <v>64643</v>
-      </c>
-      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X107">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3284,15 +4667,15 @@
         <v>9</v>
       </c>
       <c r="B108" s="1">
+        <f t="shared" si="4"/>
+        <v>53159</v>
+      </c>
+      <c r="W108">
         <f t="shared" si="2"/>
-        <v>65003</v>
-      </c>
-      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X108">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3301,8 +4684,8 @@
         <v>9</v>
       </c>
       <c r="B109" s="1">
-        <f t="shared" si="2"/>
-        <v>65363</v>
+        <f t="shared" si="4"/>
+        <v>53519</v>
       </c>
       <c r="W109">
         <f>S109-T109</f>
@@ -3318,15 +4701,15 @@
         <v>9</v>
       </c>
       <c r="B110" s="1">
+        <f t="shared" si="4"/>
+        <v>53879</v>
+      </c>
+      <c r="W110">
         <f t="shared" si="2"/>
-        <v>65723</v>
-      </c>
-      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X110">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3335,15 +4718,15 @@
         <v>10</v>
       </c>
       <c r="B111" s="1">
+        <f t="shared" si="4"/>
+        <v>54239</v>
+      </c>
+      <c r="W111">
         <f t="shared" si="2"/>
-        <v>66083</v>
-      </c>
-      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X111">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3353,14 +4736,14 @@
       </c>
       <c r="B112" s="1">
         <f t="shared" ref="B112:B175" si="5">B111+360</f>
-        <v>66443</v>
+        <v>54599</v>
       </c>
       <c r="W112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X112">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3370,14 +4753,14 @@
       </c>
       <c r="B113" s="1">
         <f t="shared" si="5"/>
-        <v>66803</v>
+        <v>54959</v>
       </c>
       <c r="W113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X113">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X113">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3387,14 +4770,14 @@
       </c>
       <c r="B114" s="1">
         <f t="shared" si="5"/>
-        <v>67163</v>
+        <v>55319</v>
       </c>
       <c r="W114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X114">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X114">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3404,14 +4787,14 @@
       </c>
       <c r="B115" s="1">
         <f t="shared" si="5"/>
-        <v>67523</v>
+        <v>55679</v>
       </c>
       <c r="W115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X115">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X115">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3421,14 +4804,14 @@
       </c>
       <c r="B116" s="1">
         <f t="shared" si="5"/>
-        <v>67883</v>
+        <v>56039</v>
       </c>
       <c r="W116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X116">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X116">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3438,14 +4821,14 @@
       </c>
       <c r="B117" s="1">
         <f t="shared" si="5"/>
-        <v>68243</v>
+        <v>56399</v>
       </c>
       <c r="W117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X117">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X117">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3455,14 +4838,14 @@
       </c>
       <c r="B118" s="1">
         <f t="shared" si="5"/>
-        <v>68603</v>
+        <v>56759</v>
       </c>
       <c r="W118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X118">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X118">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3472,14 +4855,14 @@
       </c>
       <c r="B119" s="1">
         <f t="shared" si="5"/>
-        <v>68963</v>
+        <v>57119</v>
       </c>
       <c r="W119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X119">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X119">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3489,14 +4872,14 @@
       </c>
       <c r="B120" s="1">
         <f t="shared" si="5"/>
-        <v>69323</v>
+        <v>57479</v>
       </c>
       <c r="W120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X120">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X120">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3506,14 +4889,14 @@
       </c>
       <c r="B121" s="1">
         <f t="shared" si="5"/>
-        <v>69683</v>
+        <v>57839</v>
       </c>
       <c r="W121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X121">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X121">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3523,14 +4906,14 @@
       </c>
       <c r="B122" s="1">
         <f t="shared" si="5"/>
-        <v>70043</v>
+        <v>58199</v>
       </c>
       <c r="W122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X122">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X122">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3540,14 +4923,14 @@
       </c>
       <c r="B123" s="1">
         <f t="shared" si="5"/>
-        <v>70403</v>
+        <v>58559</v>
       </c>
       <c r="W123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X123">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X123">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3557,14 +4940,14 @@
       </c>
       <c r="B124" s="1">
         <f t="shared" si="5"/>
-        <v>70763</v>
+        <v>58919</v>
       </c>
       <c r="W124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X124">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X124">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3574,14 +4957,14 @@
       </c>
       <c r="B125" s="1">
         <f t="shared" si="5"/>
-        <v>71123</v>
+        <v>59279</v>
       </c>
       <c r="W125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X125">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X125">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3591,14 +4974,14 @@
       </c>
       <c r="B126" s="1">
         <f t="shared" si="5"/>
-        <v>71483</v>
+        <v>59639</v>
       </c>
       <c r="W126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X126">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X126">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3608,7 +4991,7 @@
       </c>
       <c r="B127" s="1">
         <f t="shared" si="5"/>
-        <v>71843</v>
+        <v>59999</v>
       </c>
       <c r="W127">
         <f t="shared" ref="W127:W190" si="6">S127-T127</f>
@@ -3625,7 +5008,7 @@
       </c>
       <c r="B128" s="1">
         <f t="shared" si="5"/>
-        <v>72203</v>
+        <v>60359</v>
       </c>
       <c r="W128">
         <f t="shared" si="6"/>
@@ -3642,7 +5025,7 @@
       </c>
       <c r="B129" s="1">
         <f t="shared" si="5"/>
-        <v>72563</v>
+        <v>60719</v>
       </c>
       <c r="W129">
         <f t="shared" si="6"/>
@@ -3659,7 +5042,7 @@
       </c>
       <c r="B130" s="1">
         <f t="shared" si="5"/>
-        <v>72923</v>
+        <v>61079</v>
       </c>
       <c r="W130">
         <f t="shared" si="6"/>
@@ -3676,7 +5059,7 @@
       </c>
       <c r="B131" s="1">
         <f t="shared" si="5"/>
-        <v>73283</v>
+        <v>61439</v>
       </c>
       <c r="W131">
         <f t="shared" si="6"/>
@@ -3693,7 +5076,7 @@
       </c>
       <c r="B132" s="1">
         <f t="shared" si="5"/>
-        <v>73643</v>
+        <v>61799</v>
       </c>
       <c r="W132">
         <f t="shared" si="6"/>
@@ -3710,7 +5093,7 @@
       </c>
       <c r="B133" s="1">
         <f t="shared" si="5"/>
-        <v>74003</v>
+        <v>62159</v>
       </c>
       <c r="W133">
         <f t="shared" si="6"/>
@@ -3727,7 +5110,7 @@
       </c>
       <c r="B134" s="1">
         <f t="shared" si="5"/>
-        <v>74363</v>
+        <v>62519</v>
       </c>
       <c r="W134">
         <f t="shared" si="6"/>
@@ -3744,7 +5127,7 @@
       </c>
       <c r="B135" s="1">
         <f t="shared" si="5"/>
-        <v>74723</v>
+        <v>62879</v>
       </c>
       <c r="W135">
         <f t="shared" si="6"/>
@@ -3761,7 +5144,7 @@
       </c>
       <c r="B136" s="1">
         <f t="shared" si="5"/>
-        <v>75083</v>
+        <v>63239</v>
       </c>
       <c r="W136">
         <f t="shared" si="6"/>
@@ -3778,7 +5161,7 @@
       </c>
       <c r="B137" s="1">
         <f t="shared" si="5"/>
-        <v>75443</v>
+        <v>63599</v>
       </c>
       <c r="W137">
         <f t="shared" si="6"/>
@@ -3795,7 +5178,7 @@
       </c>
       <c r="B138" s="1">
         <f t="shared" si="5"/>
-        <v>75803</v>
+        <v>63959</v>
       </c>
       <c r="W138">
         <f t="shared" si="6"/>
@@ -3812,7 +5195,7 @@
       </c>
       <c r="B139" s="1">
         <f t="shared" si="5"/>
-        <v>76163</v>
+        <v>64319</v>
       </c>
       <c r="W139">
         <f t="shared" si="6"/>
@@ -3829,7 +5212,7 @@
       </c>
       <c r="B140" s="1">
         <f t="shared" si="5"/>
-        <v>76523</v>
+        <v>64679</v>
       </c>
       <c r="W140">
         <f t="shared" si="6"/>
@@ -3846,7 +5229,7 @@
       </c>
       <c r="B141" s="1">
         <f t="shared" si="5"/>
-        <v>76883</v>
+        <v>65039</v>
       </c>
       <c r="W141">
         <f t="shared" si="6"/>
@@ -3863,7 +5246,7 @@
       </c>
       <c r="B142" s="1">
         <f t="shared" si="5"/>
-        <v>77243</v>
+        <v>65399</v>
       </c>
       <c r="W142">
         <f t="shared" si="6"/>
@@ -3880,7 +5263,7 @@
       </c>
       <c r="B143" s="1">
         <f t="shared" si="5"/>
-        <v>77603</v>
+        <v>65759</v>
       </c>
       <c r="W143">
         <f t="shared" si="6"/>
@@ -3897,7 +5280,7 @@
       </c>
       <c r="B144" s="1">
         <f t="shared" si="5"/>
-        <v>77963</v>
+        <v>66119</v>
       </c>
       <c r="W144">
         <f t="shared" si="6"/>
@@ -3914,7 +5297,7 @@
       </c>
       <c r="B145" s="1">
         <f t="shared" si="5"/>
-        <v>78323</v>
+        <v>66479</v>
       </c>
       <c r="W145">
         <f t="shared" si="6"/>
@@ -3931,7 +5314,7 @@
       </c>
       <c r="B146" s="1">
         <f t="shared" si="5"/>
-        <v>78683</v>
+        <v>66839</v>
       </c>
       <c r="W146">
         <f t="shared" si="6"/>
@@ -3948,7 +5331,7 @@
       </c>
       <c r="B147" s="1">
         <f t="shared" si="5"/>
-        <v>79043</v>
+        <v>67199</v>
       </c>
       <c r="W147">
         <f t="shared" si="6"/>
@@ -3965,7 +5348,7 @@
       </c>
       <c r="B148" s="1">
         <f t="shared" si="5"/>
-        <v>79403</v>
+        <v>67559</v>
       </c>
       <c r="W148">
         <f t="shared" si="6"/>
@@ -3982,7 +5365,7 @@
       </c>
       <c r="B149" s="1">
         <f t="shared" si="5"/>
-        <v>79763</v>
+        <v>67919</v>
       </c>
       <c r="W149">
         <f t="shared" si="6"/>
@@ -3999,7 +5382,7 @@
       </c>
       <c r="B150" s="1">
         <f t="shared" si="5"/>
-        <v>80123</v>
+        <v>68279</v>
       </c>
       <c r="W150">
         <f t="shared" si="6"/>
@@ -4016,7 +5399,7 @@
       </c>
       <c r="B151" s="1">
         <f t="shared" si="5"/>
-        <v>80483</v>
+        <v>68639</v>
       </c>
       <c r="W151">
         <f t="shared" si="6"/>
@@ -4033,7 +5416,7 @@
       </c>
       <c r="B152" s="1">
         <f t="shared" si="5"/>
-        <v>80843</v>
+        <v>68999</v>
       </c>
       <c r="W152">
         <f t="shared" si="6"/>
@@ -4050,7 +5433,7 @@
       </c>
       <c r="B153" s="1">
         <f t="shared" si="5"/>
-        <v>81203</v>
+        <v>69359</v>
       </c>
       <c r="W153">
         <f t="shared" si="6"/>
@@ -4067,7 +5450,7 @@
       </c>
       <c r="B154" s="1">
         <f t="shared" si="5"/>
-        <v>81563</v>
+        <v>69719</v>
       </c>
       <c r="W154">
         <f t="shared" si="6"/>
@@ -4084,7 +5467,7 @@
       </c>
       <c r="B155" s="1">
         <f t="shared" si="5"/>
-        <v>81923</v>
+        <v>70079</v>
       </c>
       <c r="W155">
         <f t="shared" si="6"/>
@@ -4101,7 +5484,7 @@
       </c>
       <c r="B156" s="1">
         <f t="shared" si="5"/>
-        <v>82283</v>
+        <v>70439</v>
       </c>
       <c r="W156">
         <f t="shared" si="6"/>
@@ -4118,7 +5501,7 @@
       </c>
       <c r="B157" s="1">
         <f t="shared" si="5"/>
-        <v>82643</v>
+        <v>70799</v>
       </c>
       <c r="W157">
         <f t="shared" si="6"/>
@@ -4135,7 +5518,7 @@
       </c>
       <c r="B158" s="1">
         <f t="shared" si="5"/>
-        <v>83003</v>
+        <v>71159</v>
       </c>
       <c r="W158">
         <f t="shared" si="6"/>
@@ -4152,7 +5535,7 @@
       </c>
       <c r="B159" s="1">
         <f t="shared" si="5"/>
-        <v>83363</v>
+        <v>71519</v>
       </c>
       <c r="W159">
         <f t="shared" si="6"/>
@@ -4169,7 +5552,7 @@
       </c>
       <c r="B160" s="1">
         <f t="shared" si="5"/>
-        <v>83723</v>
+        <v>71879</v>
       </c>
       <c r="W160">
         <f t="shared" si="6"/>
@@ -4186,7 +5569,7 @@
       </c>
       <c r="B161" s="1">
         <f t="shared" si="5"/>
-        <v>84083</v>
+        <v>72239</v>
       </c>
       <c r="W161">
         <f t="shared" si="6"/>
@@ -4203,7 +5586,7 @@
       </c>
       <c r="B162" s="1">
         <f t="shared" si="5"/>
-        <v>84443</v>
+        <v>72599</v>
       </c>
       <c r="W162">
         <f t="shared" si="6"/>
@@ -4220,7 +5603,7 @@
       </c>
       <c r="B163" s="1">
         <f t="shared" si="5"/>
-        <v>84803</v>
+        <v>72959</v>
       </c>
       <c r="W163">
         <f t="shared" si="6"/>
@@ -4237,7 +5620,7 @@
       </c>
       <c r="B164" s="1">
         <f t="shared" si="5"/>
-        <v>85163</v>
+        <v>73319</v>
       </c>
       <c r="W164">
         <f t="shared" si="6"/>
@@ -4254,7 +5637,7 @@
       </c>
       <c r="B165" s="1">
         <f t="shared" si="5"/>
-        <v>85523</v>
+        <v>73679</v>
       </c>
       <c r="W165">
         <f t="shared" si="6"/>
@@ -4271,7 +5654,7 @@
       </c>
       <c r="B166" s="1">
         <f t="shared" si="5"/>
-        <v>85883</v>
+        <v>74039</v>
       </c>
       <c r="W166">
         <f t="shared" si="6"/>
@@ -4288,7 +5671,7 @@
       </c>
       <c r="B167" s="1">
         <f t="shared" si="5"/>
-        <v>86243</v>
+        <v>74399</v>
       </c>
       <c r="W167">
         <f t="shared" si="6"/>
@@ -4305,7 +5688,7 @@
       </c>
       <c r="B168" s="1">
         <f t="shared" si="5"/>
-        <v>86603</v>
+        <v>74759</v>
       </c>
       <c r="W168">
         <f t="shared" si="6"/>
@@ -4322,7 +5705,7 @@
       </c>
       <c r="B169" s="1">
         <f t="shared" si="5"/>
-        <v>86963</v>
+        <v>75119</v>
       </c>
       <c r="W169">
         <f t="shared" si="6"/>
@@ -4339,7 +5722,7 @@
       </c>
       <c r="B170" s="1">
         <f t="shared" si="5"/>
-        <v>87323</v>
+        <v>75479</v>
       </c>
       <c r="W170">
         <f t="shared" si="6"/>
@@ -4356,7 +5739,7 @@
       </c>
       <c r="B171" s="1">
         <f t="shared" si="5"/>
-        <v>87683</v>
+        <v>75839</v>
       </c>
       <c r="W171">
         <f t="shared" si="6"/>
@@ -4373,7 +5756,7 @@
       </c>
       <c r="B172" s="1">
         <f t="shared" si="5"/>
-        <v>88043</v>
+        <v>76199</v>
       </c>
       <c r="W172">
         <f t="shared" si="6"/>
@@ -4390,7 +5773,7 @@
       </c>
       <c r="B173" s="1">
         <f t="shared" si="5"/>
-        <v>88403</v>
+        <v>76559</v>
       </c>
       <c r="W173">
         <f t="shared" si="6"/>
@@ -4407,7 +5790,7 @@
       </c>
       <c r="B174" s="1">
         <f t="shared" si="5"/>
-        <v>88763</v>
+        <v>76919</v>
       </c>
       <c r="W174">
         <f t="shared" si="6"/>
@@ -4424,7 +5807,7 @@
       </c>
       <c r="B175" s="1">
         <f t="shared" si="5"/>
-        <v>89123</v>
+        <v>77279</v>
       </c>
       <c r="W175">
         <f t="shared" si="6"/>
@@ -4441,7 +5824,7 @@
       </c>
       <c r="B176" s="1">
         <f t="shared" ref="B176:B189" si="8">B175+360</f>
-        <v>89483</v>
+        <v>77639</v>
       </c>
       <c r="W176">
         <f t="shared" si="6"/>
@@ -4458,7 +5841,7 @@
       </c>
       <c r="B177" s="1">
         <f t="shared" si="8"/>
-        <v>89843</v>
+        <v>77999</v>
       </c>
       <c r="W177">
         <f t="shared" si="6"/>
@@ -4475,7 +5858,7 @@
       </c>
       <c r="B178" s="1">
         <f t="shared" si="8"/>
-        <v>90203</v>
+        <v>78359</v>
       </c>
       <c r="W178">
         <f t="shared" si="6"/>
@@ -4492,7 +5875,7 @@
       </c>
       <c r="B179" s="1">
         <f t="shared" si="8"/>
-        <v>90563</v>
+        <v>78719</v>
       </c>
       <c r="W179">
         <f t="shared" si="6"/>
@@ -4509,7 +5892,7 @@
       </c>
       <c r="B180" s="1">
         <f t="shared" si="8"/>
-        <v>90923</v>
+        <v>79079</v>
       </c>
       <c r="W180">
         <f t="shared" si="6"/>
@@ -4526,7 +5909,7 @@
       </c>
       <c r="B181" s="1">
         <f t="shared" si="8"/>
-        <v>91283</v>
+        <v>79439</v>
       </c>
       <c r="W181">
         <f t="shared" si="6"/>
@@ -4543,7 +5926,7 @@
       </c>
       <c r="B182" s="1">
         <f t="shared" si="8"/>
-        <v>91643</v>
+        <v>79799</v>
       </c>
       <c r="W182">
         <f t="shared" si="6"/>
@@ -4560,7 +5943,7 @@
       </c>
       <c r="B183" s="1">
         <f t="shared" si="8"/>
-        <v>92003</v>
+        <v>80159</v>
       </c>
       <c r="W183">
         <f t="shared" si="6"/>
@@ -4577,7 +5960,7 @@
       </c>
       <c r="B184" s="1">
         <f t="shared" si="8"/>
-        <v>92363</v>
+        <v>80519</v>
       </c>
       <c r="W184">
         <f t="shared" si="6"/>
@@ -4594,7 +5977,7 @@
       </c>
       <c r="B185" s="1">
         <f t="shared" si="8"/>
-        <v>92723</v>
+        <v>80879</v>
       </c>
       <c r="W185">
         <f t="shared" si="6"/>
@@ -4611,7 +5994,7 @@
       </c>
       <c r="B186" s="1">
         <f t="shared" si="8"/>
-        <v>93083</v>
+        <v>81239</v>
       </c>
       <c r="W186">
         <f t="shared" si="6"/>
@@ -4628,7 +6011,7 @@
       </c>
       <c r="B187" s="1">
         <f t="shared" si="8"/>
-        <v>93443</v>
+        <v>81599</v>
       </c>
       <c r="W187">
         <f t="shared" si="6"/>
@@ -4645,7 +6028,7 @@
       </c>
       <c r="B188" s="1">
         <f t="shared" si="8"/>
-        <v>93803</v>
+        <v>81959</v>
       </c>
       <c r="W188">
         <f t="shared" si="6"/>
@@ -4662,7 +6045,7 @@
       </c>
       <c r="B189" s="1">
         <f t="shared" si="8"/>
-        <v>94163</v>
+        <v>82319</v>
       </c>
       <c r="W189">
         <f t="shared" si="6"/>

--- a/rugby_results_urc_2024_2025.xlsx
+++ b/rugby_results_urc_2024_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\rugby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5E205F-BAA5-43CB-92CC-6A866F809848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACF56F0-3E1B-435D-8334-F42AA30FE7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F91CF1C2-8A5F-42AD-9533-1E11BD16044D}"/>
   </bookViews>
@@ -593,7 +593,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4096,9 +4096,12 @@
         <v>8</v>
       </c>
       <c r="E79">
+        <v>1.5</v>
+      </c>
+      <c r="F79">
         <v>4.5</v>
       </c>
-      <c r="F79">
+      <c r="J79">
         <v>4.5</v>
       </c>
       <c r="W79">
@@ -4124,9 +4127,12 @@
         <v>5</v>
       </c>
       <c r="E80">
+        <v>-16.5</v>
+      </c>
+      <c r="F80">
         <v>-18.5</v>
       </c>
-      <c r="F80">
+      <c r="J80">
         <v>-18.5</v>
       </c>
       <c r="W80">
@@ -4152,9 +4158,12 @@
         <v>14</v>
       </c>
       <c r="E81">
+        <v>-5.5</v>
+      </c>
+      <c r="F81">
         <v>-7.5</v>
       </c>
-      <c r="F81">
+      <c r="J81">
         <v>-7.5</v>
       </c>
       <c r="W81">
@@ -4180,9 +4189,12 @@
         <v>11</v>
       </c>
       <c r="E82">
+        <v>-8.5</v>
+      </c>
+      <c r="F82">
         <v>-6.5</v>
       </c>
-      <c r="F82">
+      <c r="J82">
         <v>-6.5</v>
       </c>
       <c r="W82">
@@ -4208,9 +4220,12 @@
         <v>3</v>
       </c>
       <c r="E83">
+        <v>2.5</v>
+      </c>
+      <c r="F83">
         <v>6.5</v>
       </c>
-      <c r="F83">
+      <c r="J83">
         <v>6.5</v>
       </c>
       <c r="W83">
@@ -4236,9 +4251,12 @@
         <v>4</v>
       </c>
       <c r="E84">
+        <v>-17.5</v>
+      </c>
+      <c r="F84">
         <v>-18.5</v>
       </c>
-      <c r="F84">
+      <c r="J84">
         <v>-18.5</v>
       </c>
       <c r="W84">
@@ -4269,6 +4287,9 @@
       <c r="F85">
         <v>-17.5</v>
       </c>
+      <c r="J85">
+        <v>-17.5</v>
+      </c>
       <c r="W85">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4292,9 +4313,12 @@
         <v>2</v>
       </c>
       <c r="E86">
+        <v>4.5</v>
+      </c>
+      <c r="F86">
         <v>3.5</v>
       </c>
-      <c r="F86">
+      <c r="J86">
         <v>3.5</v>
       </c>
       <c r="W86">

--- a/rugby_results_urc_2024_2025.xlsx
+++ b/rugby_results_urc_2024_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\rugby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACF56F0-3E1B-435D-8334-F42AA30FE7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E88742-83D6-4318-9558-5F228EE7CBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F91CF1C2-8A5F-42AD-9533-1E11BD16044D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="77">
   <si>
     <t>Stormers</t>
   </si>
@@ -235,6 +235,27 @@
   </si>
   <si>
     <t>Jacob Stockdale</t>
+  </si>
+  <si>
+    <t>Jac Morgan</t>
+  </si>
+  <si>
+    <t>Eddie James</t>
+  </si>
+  <si>
+    <t>Iwan Stephens</t>
+  </si>
+  <si>
+    <t>Jimmy O'Brien</t>
+  </si>
+  <si>
+    <t>Jack O'Donoghue</t>
+  </si>
+  <si>
+    <t>Cam Winnett</t>
+  </si>
+  <si>
+    <t>Simone Gesi</t>
   </si>
 </sst>
 </file>
@@ -590,10 +611,10 @@
   <dimension ref="A1:AA233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomRight" activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4104,13 +4125,37 @@
       <c r="J79">
         <v>4.5</v>
       </c>
+      <c r="M79">
+        <v>15</v>
+      </c>
+      <c r="N79">
+        <v>17</v>
+      </c>
+      <c r="O79">
+        <v>3</v>
+      </c>
+      <c r="P79">
+        <v>4</v>
+      </c>
+      <c r="Q79">
+        <v>9</v>
+      </c>
+      <c r="R79">
+        <v>7</v>
+      </c>
+      <c r="S79">
+        <v>9</v>
+      </c>
+      <c r="T79">
+        <v>10</v>
+      </c>
       <c r="W79">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
@@ -4135,16 +4180,46 @@
       <c r="J80">
         <v>-18.5</v>
       </c>
+      <c r="M80">
+        <v>30</v>
+      </c>
+      <c r="N80">
+        <v>8</v>
+      </c>
+      <c r="O80">
+        <v>8</v>
+      </c>
+      <c r="P80">
+        <v>2</v>
+      </c>
+      <c r="Q80">
+        <v>7</v>
+      </c>
+      <c r="R80">
+        <v>4</v>
+      </c>
+      <c r="S80">
+        <v>6</v>
+      </c>
+      <c r="T80">
+        <v>14</v>
+      </c>
       <c r="W80">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="X80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-3</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>6</v>
       </c>
@@ -4166,16 +4241,46 @@
       <c r="J81">
         <v>-7.5</v>
       </c>
+      <c r="M81">
+        <v>17</v>
+      </c>
+      <c r="N81">
+        <v>28</v>
+      </c>
+      <c r="O81">
+        <v>6</v>
+      </c>
+      <c r="P81">
+        <v>10</v>
+      </c>
+      <c r="Q81">
+        <v>6</v>
+      </c>
+      <c r="R81">
+        <v>4</v>
+      </c>
+      <c r="S81">
+        <v>9</v>
+      </c>
+      <c r="T81">
+        <v>11</v>
+      </c>
       <c r="W81">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X81">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>6</v>
       </c>
@@ -4197,16 +4302,40 @@
       <c r="J82">
         <v>-6.5</v>
       </c>
+      <c r="M82">
+        <v>41</v>
+      </c>
+      <c r="N82">
+        <v>24</v>
+      </c>
+      <c r="O82">
+        <v>13</v>
+      </c>
+      <c r="P82">
+        <v>15</v>
+      </c>
+      <c r="Q82">
+        <v>7</v>
+      </c>
+      <c r="R82">
+        <v>5</v>
+      </c>
+      <c r="S82">
+        <v>13</v>
+      </c>
+      <c r="T82">
+        <v>8</v>
+      </c>
       <c r="W82">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X82">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>6</v>
       </c>
@@ -4228,16 +4357,46 @@
       <c r="J83">
         <v>6.5</v>
       </c>
+      <c r="M83">
+        <v>22</v>
+      </c>
+      <c r="N83">
+        <v>13</v>
+      </c>
+      <c r="O83">
+        <v>3</v>
+      </c>
+      <c r="P83">
+        <v>4</v>
+      </c>
+      <c r="Q83">
+        <v>6</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>10</v>
+      </c>
+      <c r="T83">
+        <v>16</v>
+      </c>
       <c r="W83">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="X83">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-3</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>6</v>
       </c>
@@ -4259,16 +4418,46 @@
       <c r="J84">
         <v>-18.5</v>
       </c>
+      <c r="M84">
+        <v>24</v>
+      </c>
+      <c r="N84">
+        <v>6</v>
+      </c>
+      <c r="O84">
+        <v>2</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>7</v>
+      </c>
+      <c r="R84">
+        <v>7</v>
+      </c>
+      <c r="S84">
+        <v>13</v>
+      </c>
+      <c r="T84">
+        <v>10</v>
+      </c>
       <c r="W84">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y84" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>6</v>
       </c>
@@ -4290,16 +4479,49 @@
       <c r="J85">
         <v>-17.5</v>
       </c>
+      <c r="M85">
+        <v>31</v>
+      </c>
+      <c r="N85">
+        <v>7</v>
+      </c>
+      <c r="O85">
+        <v>13</v>
+      </c>
+      <c r="P85">
+        <v>3</v>
+      </c>
+      <c r="Q85">
+        <v>10</v>
+      </c>
+      <c r="R85">
+        <v>9</v>
+      </c>
+      <c r="S85">
+        <v>10</v>
+      </c>
+      <c r="T85">
+        <v>10</v>
+      </c>
       <c r="W85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X85">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>6</v>
       </c>
@@ -4321,72 +4543,246 @@
       <c r="J86">
         <v>3.5</v>
       </c>
+      <c r="M86">
+        <v>21</v>
+      </c>
+      <c r="N86">
+        <v>19</v>
+      </c>
+      <c r="O86">
+        <v>6</v>
+      </c>
+      <c r="P86">
+        <v>9</v>
+      </c>
+      <c r="Q86">
+        <v>5</v>
+      </c>
+      <c r="R86">
+        <v>6</v>
+      </c>
+      <c r="S86">
+        <v>7</v>
+      </c>
+      <c r="T86">
+        <v>8</v>
+      </c>
       <c r="W86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>7</v>
       </c>
       <c r="B87" s="1">
-        <v>45599</v>
+        <v>45625</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87">
+        <v>-18.5</v>
+      </c>
+      <c r="F87">
+        <v>-18.5</v>
+      </c>
+      <c r="M87">
+        <v>17</v>
+      </c>
+      <c r="N87">
+        <v>15</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>6</v>
+      </c>
+      <c r="Q87">
+        <v>6</v>
+      </c>
+      <c r="R87">
+        <v>13</v>
+      </c>
+      <c r="S87">
+        <v>8</v>
+      </c>
+      <c r="T87">
+        <v>12</v>
       </c>
       <c r="W87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="X87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>7</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" ref="B88:B111" si="4">B87+360</f>
-        <v>45959</v>
+        <v>45625</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88">
+        <v>3.5</v>
+      </c>
+      <c r="F88">
+        <v>3.5</v>
+      </c>
+      <c r="M88">
+        <v>20</v>
+      </c>
+      <c r="N88">
+        <v>27</v>
+      </c>
+      <c r="O88">
+        <v>5</v>
+      </c>
+      <c r="P88">
+        <v>3</v>
+      </c>
+      <c r="Q88">
+        <v>4</v>
+      </c>
+      <c r="R88">
+        <v>6</v>
+      </c>
+      <c r="S88">
+        <v>13</v>
+      </c>
+      <c r="T88">
+        <v>10</v>
       </c>
       <c r="W88">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X88">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>7</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" si="4"/>
-        <v>46319</v>
+        <v>45626</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>-7.5</v>
+      </c>
+      <c r="F89">
+        <v>-7.5</v>
+      </c>
+      <c r="M89">
+        <v>21</v>
+      </c>
+      <c r="N89">
+        <v>15</v>
+      </c>
+      <c r="O89">
+        <v>14</v>
+      </c>
+      <c r="P89">
+        <v>11</v>
+      </c>
+      <c r="Q89">
+        <v>9</v>
+      </c>
+      <c r="R89">
+        <v>5</v>
+      </c>
+      <c r="S89">
+        <v>14</v>
+      </c>
+      <c r="T89">
+        <v>10</v>
       </c>
       <c r="W89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X89">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>7</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="4"/>
-        <v>46679</v>
+        <v>45626</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>-11.5</v>
+      </c>
+      <c r="F90">
+        <v>-11.5</v>
+      </c>
+      <c r="M90">
+        <v>31</v>
+      </c>
+      <c r="N90">
+        <v>23</v>
+      </c>
+      <c r="O90">
+        <v>10</v>
+      </c>
+      <c r="P90">
+        <v>7</v>
+      </c>
+      <c r="Q90">
+        <v>4</v>
+      </c>
+      <c r="R90">
+        <v>6</v>
+      </c>
+      <c r="S90">
+        <v>13</v>
+      </c>
+      <c r="T90">
+        <v>13</v>
       </c>
       <c r="W90">
         <f t="shared" si="2"/>
@@ -4394,109 +4790,328 @@
       </c>
       <c r="X90">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>7</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" si="4"/>
-        <v>47039</v>
+        <v>45626</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91">
+        <v>2.5</v>
+      </c>
+      <c r="F91">
+        <v>2.5</v>
+      </c>
+      <c r="M91">
+        <v>14</v>
+      </c>
+      <c r="N91">
+        <v>28</v>
+      </c>
+      <c r="O91">
+        <v>18</v>
+      </c>
+      <c r="P91">
+        <v>11</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>9</v>
+      </c>
+      <c r="S91">
+        <v>10</v>
+      </c>
+      <c r="T91">
+        <v>6</v>
       </c>
       <c r="W91">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X91">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>7</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" si="4"/>
-        <v>47399</v>
+        <v>45626</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>-9.5</v>
+      </c>
+      <c r="F92">
+        <v>-9.5</v>
+      </c>
+      <c r="M92">
+        <v>50</v>
+      </c>
+      <c r="N92">
+        <v>33</v>
+      </c>
+      <c r="O92">
+        <v>10</v>
+      </c>
+      <c r="P92">
+        <v>3</v>
+      </c>
+      <c r="Q92">
+        <v>10</v>
+      </c>
+      <c r="R92">
+        <v>4</v>
+      </c>
+      <c r="S92">
+        <v>11</v>
+      </c>
+      <c r="T92">
+        <v>9</v>
       </c>
       <c r="W92">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X92">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>7</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" si="4"/>
-        <v>47759</v>
+        <v>45626</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>-7.5</v>
+      </c>
+      <c r="F93">
+        <v>-7.5</v>
+      </c>
+      <c r="M93">
+        <v>17</v>
+      </c>
+      <c r="N93">
+        <v>10</v>
+      </c>
+      <c r="O93">
+        <v>5</v>
+      </c>
+      <c r="P93">
+        <v>3</v>
+      </c>
+      <c r="Q93">
+        <v>11</v>
+      </c>
+      <c r="R93">
+        <v>8</v>
+      </c>
+      <c r="S93">
+        <v>7</v>
+      </c>
+      <c r="T93">
+        <v>3</v>
       </c>
       <c r="W93">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X93">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-3</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>7</v>
       </c>
       <c r="B94" s="1">
-        <f t="shared" si="4"/>
-        <v>48119</v>
+        <v>45626</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94">
+        <v>7.5</v>
+      </c>
+      <c r="F94">
+        <v>7.5</v>
+      </c>
+      <c r="M94">
+        <v>22</v>
+      </c>
+      <c r="N94">
+        <v>17</v>
+      </c>
+      <c r="O94">
+        <v>7</v>
+      </c>
+      <c r="P94">
+        <v>13</v>
+      </c>
+      <c r="Q94">
+        <v>8</v>
+      </c>
+      <c r="R94">
+        <v>7</v>
+      </c>
+      <c r="S94">
+        <v>11</v>
+      </c>
+      <c r="T94">
+        <v>7</v>
       </c>
       <c r="W94">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X94">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>8</v>
       </c>
       <c r="B95" s="1">
-        <f t="shared" si="4"/>
-        <v>48479</v>
+        <v>45646</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95">
+        <v>-1.5</v>
+      </c>
+      <c r="F95">
+        <v>-1.5</v>
+      </c>
+      <c r="M95">
+        <v>19</v>
+      </c>
+      <c r="N95">
+        <v>22</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>7</v>
+      </c>
+      <c r="Q95">
+        <v>7</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>7</v>
+      </c>
+      <c r="T95">
+        <v>15</v>
       </c>
       <c r="W95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="X95">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>8</v>
       </c>
       <c r="B96" s="1">
-        <f t="shared" si="4"/>
-        <v>48839</v>
+        <v>45647</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>-16.5</v>
+      </c>
+      <c r="F96">
+        <v>-15.5</v>
+      </c>
+      <c r="M96">
+        <v>11</v>
+      </c>
+      <c r="N96">
+        <v>10</v>
+      </c>
+      <c r="O96">
+        <v>8</v>
+      </c>
+      <c r="P96">
+        <v>2</v>
+      </c>
+      <c r="Q96">
+        <v>5</v>
+      </c>
+      <c r="R96">
+        <v>11</v>
+      </c>
+      <c r="S96">
+        <v>8</v>
+      </c>
+      <c r="T96">
+        <v>14</v>
       </c>
       <c r="W96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="X96">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.3">
@@ -4504,16 +5119,51 @@
         <v>8</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" si="4"/>
-        <v>49199</v>
+        <v>45647</v>
+      </c>
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>-7.5</v>
+      </c>
+      <c r="F97">
+        <v>-2.5</v>
+      </c>
+      <c r="M97">
+        <v>29</v>
+      </c>
+      <c r="N97">
+        <v>10</v>
+      </c>
+      <c r="O97">
+        <v>14</v>
+      </c>
+      <c r="P97">
+        <v>8</v>
+      </c>
+      <c r="Q97">
+        <v>8</v>
+      </c>
+      <c r="R97">
+        <v>7</v>
+      </c>
+      <c r="S97">
+        <v>8</v>
+      </c>
+      <c r="T97">
+        <v>9</v>
       </c>
       <c r="W97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.3">
@@ -4521,16 +5171,51 @@
         <v>8</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" si="4"/>
-        <v>49559</v>
+        <v>45647</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98">
+        <v>-3.5</v>
+      </c>
+      <c r="F98">
+        <v>-5.5</v>
+      </c>
+      <c r="M98">
+        <v>20</v>
+      </c>
+      <c r="N98">
+        <v>17</v>
+      </c>
+      <c r="O98">
+        <v>4</v>
+      </c>
+      <c r="P98">
+        <v>3</v>
+      </c>
+      <c r="Q98">
+        <v>4</v>
+      </c>
+      <c r="R98">
+        <v>3</v>
+      </c>
+      <c r="S98">
+        <v>15</v>
+      </c>
+      <c r="T98">
+        <v>7</v>
       </c>
       <c r="W98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X98">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.3">
@@ -4538,16 +5223,51 @@
         <v>8</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" si="4"/>
-        <v>49919</v>
+        <v>45647</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99">
+        <v>-6.5</v>
+      </c>
+      <c r="F99">
+        <v>-6.5</v>
+      </c>
+      <c r="M99">
+        <v>23</v>
+      </c>
+      <c r="N99">
+        <v>22</v>
+      </c>
+      <c r="O99">
+        <v>7</v>
+      </c>
+      <c r="P99">
+        <v>10</v>
+      </c>
+      <c r="Q99">
+        <v>6</v>
+      </c>
+      <c r="R99">
+        <v>7</v>
+      </c>
+      <c r="S99">
+        <v>12</v>
+      </c>
+      <c r="T99">
+        <v>15</v>
       </c>
       <c r="W99">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="X99">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.3">
@@ -4555,16 +5275,51 @@
         <v>8</v>
       </c>
       <c r="B100" s="1">
-        <f t="shared" si="4"/>
-        <v>50279</v>
+        <v>45647</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100">
+        <v>-13.5</v>
+      </c>
+      <c r="F100">
+        <v>-14.5</v>
+      </c>
+      <c r="M100">
+        <v>20</v>
+      </c>
+      <c r="N100">
+        <v>12</v>
+      </c>
+      <c r="O100">
+        <v>5</v>
+      </c>
+      <c r="P100">
+        <v>10</v>
+      </c>
+      <c r="Q100">
+        <v>9</v>
+      </c>
+      <c r="R100">
+        <v>6</v>
+      </c>
+      <c r="S100">
+        <v>15</v>
+      </c>
+      <c r="T100">
+        <v>13</v>
       </c>
       <c r="W100">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X100">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.3">
@@ -4572,33 +5327,103 @@
         <v>8</v>
       </c>
       <c r="B101" s="1">
-        <f t="shared" si="4"/>
-        <v>50639</v>
+        <v>45647</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>-9.5</v>
+      </c>
+      <c r="F101">
+        <v>-10.5</v>
+      </c>
+      <c r="M101">
+        <v>33</v>
+      </c>
+      <c r="N101">
+        <v>14</v>
+      </c>
+      <c r="O101">
+        <v>15</v>
+      </c>
+      <c r="P101">
+        <v>5</v>
+      </c>
+      <c r="Q101">
+        <v>3</v>
+      </c>
+      <c r="R101">
+        <v>7</v>
+      </c>
+      <c r="S101">
+        <v>9</v>
+      </c>
+      <c r="T101">
+        <v>13</v>
       </c>
       <c r="W101">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="X101">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B102" s="1">
-        <f t="shared" si="4"/>
-        <v>50999</v>
+        <v>45652</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102">
+        <v>5.5</v>
+      </c>
+      <c r="F102">
+        <v>4.5</v>
+      </c>
+      <c r="M102">
+        <v>22</v>
+      </c>
+      <c r="N102">
+        <v>24</v>
+      </c>
+      <c r="O102">
+        <v>3</v>
+      </c>
+      <c r="P102">
+        <v>2</v>
+      </c>
+      <c r="Q102">
+        <v>5</v>
+      </c>
+      <c r="R102">
+        <v>7</v>
+      </c>
+      <c r="S102">
+        <v>10</v>
+      </c>
+      <c r="T102">
+        <v>8</v>
       </c>
       <c r="W102">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X102">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.3">
@@ -4606,16 +5431,51 @@
         <v>9</v>
       </c>
       <c r="B103" s="1">
-        <f t="shared" si="4"/>
-        <v>51359</v>
+        <v>45653</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>10.5</v>
+      </c>
+      <c r="F103">
+        <v>8.5</v>
+      </c>
+      <c r="M103">
+        <v>7</v>
+      </c>
+      <c r="N103">
+        <v>28</v>
+      </c>
+      <c r="O103">
+        <v>2</v>
+      </c>
+      <c r="P103">
+        <v>9</v>
+      </c>
+      <c r="Q103">
+        <v>5</v>
+      </c>
+      <c r="R103">
+        <v>4</v>
+      </c>
+      <c r="S103">
+        <v>7</v>
+      </c>
+      <c r="T103">
+        <v>12</v>
       </c>
       <c r="W103">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="X103">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.3">
@@ -4623,16 +5483,51 @@
         <v>9</v>
       </c>
       <c r="B104" s="1">
-        <f t="shared" si="4"/>
-        <v>51719</v>
+        <v>45654</v>
+      </c>
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>-6.5</v>
+      </c>
+      <c r="F104">
+        <v>-5.5</v>
+      </c>
+      <c r="M104">
+        <v>24</v>
+      </c>
+      <c r="N104">
+        <v>20</v>
+      </c>
+      <c r="O104">
+        <v>6</v>
+      </c>
+      <c r="P104">
+        <v>6</v>
+      </c>
+      <c r="Q104">
+        <v>6</v>
+      </c>
+      <c r="R104">
+        <v>8</v>
+      </c>
+      <c r="S104">
+        <v>8</v>
+      </c>
+      <c r="T104">
+        <v>9</v>
       </c>
       <c r="W104">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.3">
@@ -4640,16 +5535,51 @@
         <v>9</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" si="4"/>
-        <v>52079</v>
+        <v>45654</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105">
+        <v>4.5</v>
+      </c>
+      <c r="F105">
+        <v>4.5</v>
+      </c>
+      <c r="M105">
+        <v>10</v>
+      </c>
+      <c r="N105">
+        <v>7</v>
+      </c>
+      <c r="O105">
+        <v>6</v>
+      </c>
+      <c r="P105">
+        <v>4</v>
+      </c>
+      <c r="Q105">
+        <v>9</v>
+      </c>
+      <c r="R105">
+        <v>8</v>
+      </c>
+      <c r="S105">
+        <v>14</v>
+      </c>
+      <c r="T105">
+        <v>12</v>
       </c>
       <c r="W105">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X105">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.3">
@@ -4657,16 +5587,51 @@
         <v>9</v>
       </c>
       <c r="B106" s="1">
-        <f t="shared" si="4"/>
-        <v>52439</v>
+        <v>45654</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>6.5</v>
+      </c>
+      <c r="F106">
+        <v>7.5</v>
+      </c>
+      <c r="M106">
+        <v>12</v>
+      </c>
+      <c r="N106">
+        <v>24</v>
+      </c>
+      <c r="O106">
+        <v>6</v>
+      </c>
+      <c r="P106">
+        <v>9</v>
+      </c>
+      <c r="Q106">
+        <v>9</v>
+      </c>
+      <c r="R106">
+        <v>11</v>
+      </c>
+      <c r="S106">
+        <v>15</v>
+      </c>
+      <c r="T106">
+        <v>10</v>
       </c>
       <c r="W106">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X106">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.3">
@@ -4674,16 +5639,51 @@
         <v>9</v>
       </c>
       <c r="B107" s="1">
-        <f t="shared" si="4"/>
-        <v>52799</v>
+        <v>45654</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>-7.5</v>
+      </c>
+      <c r="F107">
+        <v>-7.5</v>
+      </c>
+      <c r="M107">
+        <v>7</v>
+      </c>
+      <c r="N107">
+        <v>17</v>
+      </c>
+      <c r="O107">
+        <v>4</v>
+      </c>
+      <c r="P107">
+        <v>2</v>
+      </c>
+      <c r="Q107">
+        <v>5</v>
+      </c>
+      <c r="R107">
+        <v>9</v>
+      </c>
+      <c r="S107">
+        <v>9</v>
+      </c>
+      <c r="T107">
+        <v>16</v>
       </c>
       <c r="W107">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="X107">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.3">
@@ -4691,16 +5691,51 @@
         <v>9</v>
       </c>
       <c r="B108" s="1">
-        <f t="shared" si="4"/>
-        <v>53159</v>
+        <v>45658</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108">
+        <v>-7.5</v>
+      </c>
+      <c r="F108">
+        <v>-7.5</v>
+      </c>
+      <c r="M108">
+        <v>13</v>
+      </c>
+      <c r="N108">
+        <v>13</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>5</v>
+      </c>
+      <c r="Q108">
+        <v>10</v>
+      </c>
+      <c r="R108">
+        <v>9</v>
+      </c>
+      <c r="S108">
+        <v>16</v>
+      </c>
+      <c r="T108">
+        <v>10</v>
       </c>
       <c r="W108">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X108">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.3">
@@ -4708,33 +5743,103 @@
         <v>9</v>
       </c>
       <c r="B109" s="1">
-        <f t="shared" si="4"/>
-        <v>53519</v>
+        <v>45658</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>-10.5</v>
+      </c>
+      <c r="F109">
+        <v>-10.5</v>
+      </c>
+      <c r="M109">
+        <v>32</v>
+      </c>
+      <c r="N109">
+        <v>15</v>
+      </c>
+      <c r="O109">
+        <v>18</v>
+      </c>
+      <c r="P109">
+        <v>6</v>
+      </c>
+      <c r="Q109">
+        <v>9</v>
+      </c>
+      <c r="R109">
+        <v>6</v>
+      </c>
+      <c r="S109">
+        <v>9</v>
+      </c>
+      <c r="T109">
+        <v>10</v>
       </c>
       <c r="W109">
         <f>S109-T109</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <f>R109-Q109</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B110" s="1">
-        <f t="shared" si="4"/>
-        <v>53879</v>
+        <v>45681</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>-7.5</v>
+      </c>
+      <c r="F110">
+        <v>-7.5</v>
+      </c>
+      <c r="M110">
+        <v>43</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>10</v>
+      </c>
+      <c r="P110">
+        <v>3</v>
+      </c>
+      <c r="Q110">
+        <v>8</v>
+      </c>
+      <c r="R110">
+        <v>3</v>
+      </c>
+      <c r="S110">
+        <v>10</v>
+      </c>
+      <c r="T110">
+        <v>7</v>
       </c>
       <c r="W110">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X110">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.3">
@@ -4742,16 +5847,51 @@
         <v>10</v>
       </c>
       <c r="B111" s="1">
-        <f t="shared" si="4"/>
-        <v>54239</v>
+        <v>45683</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111">
+        <v>-5.5</v>
+      </c>
+      <c r="F111">
+        <v>-5.5</v>
+      </c>
+      <c r="M111">
+        <v>22</v>
+      </c>
+      <c r="N111">
+        <v>19</v>
+      </c>
+      <c r="O111">
+        <v>7</v>
+      </c>
+      <c r="P111">
+        <v>7</v>
+      </c>
+      <c r="Q111">
+        <v>6</v>
+      </c>
+      <c r="R111">
+        <v>4</v>
+      </c>
+      <c r="S111">
+        <v>7</v>
+      </c>
+      <c r="T111">
+        <v>9</v>
       </c>
       <c r="W111">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X111">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.3">
@@ -4759,16 +5899,51 @@
         <v>10</v>
       </c>
       <c r="B112" s="1">
-        <f t="shared" ref="B112:B175" si="5">B111+360</f>
-        <v>54599</v>
+        <v>45682</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112">
+        <v>4.5</v>
+      </c>
+      <c r="F112">
+        <v>4.5</v>
+      </c>
+      <c r="M112">
+        <v>22</v>
+      </c>
+      <c r="N112">
+        <v>35</v>
+      </c>
+      <c r="O112">
+        <v>5</v>
+      </c>
+      <c r="P112">
+        <v>6</v>
+      </c>
+      <c r="Q112">
+        <v>6</v>
+      </c>
+      <c r="R112">
+        <v>11</v>
+      </c>
+      <c r="S112">
+        <v>9</v>
+      </c>
+      <c r="T112">
+        <v>11</v>
       </c>
       <c r="W112">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X112">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.3">
@@ -4776,16 +5951,51 @@
         <v>10</v>
       </c>
       <c r="B113" s="1">
-        <f t="shared" si="5"/>
-        <v>54959</v>
+        <v>45682</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>-1.5</v>
+      </c>
+      <c r="F113">
+        <v>-1.5</v>
+      </c>
+      <c r="M113">
+        <v>30</v>
+      </c>
+      <c r="N113">
+        <v>24</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <v>2</v>
+      </c>
+      <c r="Q113">
+        <v>6</v>
+      </c>
+      <c r="R113">
+        <v>5</v>
+      </c>
+      <c r="S113">
+        <v>10</v>
+      </c>
+      <c r="T113">
+        <v>15</v>
       </c>
       <c r="W113">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="X113">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.3">
@@ -4793,16 +6003,51 @@
         <v>10</v>
       </c>
       <c r="B114" s="1">
-        <f t="shared" si="5"/>
-        <v>55319</v>
+        <v>45682</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>-11.5</v>
+      </c>
+      <c r="F114">
+        <v>-12.5</v>
+      </c>
+      <c r="M114">
+        <v>36</v>
+      </c>
+      <c r="N114">
+        <v>12</v>
+      </c>
+      <c r="O114">
+        <v>7</v>
+      </c>
+      <c r="P114">
+        <v>10</v>
+      </c>
+      <c r="Q114">
+        <v>13</v>
+      </c>
+      <c r="R114">
+        <v>6</v>
+      </c>
+      <c r="S114">
+        <v>13</v>
+      </c>
+      <c r="T114">
+        <v>17</v>
       </c>
       <c r="W114">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="X114">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.3">
@@ -4810,12 +6055,47 @@
         <v>10</v>
       </c>
       <c r="B115" s="1">
-        <f t="shared" si="5"/>
-        <v>55679</v>
+        <v>45682</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115">
+        <v>9.5</v>
+      </c>
+      <c r="F115">
+        <v>10.5</v>
+      </c>
+      <c r="M115">
+        <v>22</v>
+      </c>
+      <c r="N115">
+        <v>42</v>
+      </c>
+      <c r="O115">
+        <v>8</v>
+      </c>
+      <c r="P115">
+        <v>12</v>
+      </c>
+      <c r="Q115">
+        <v>6</v>
+      </c>
+      <c r="R115">
+        <v>6</v>
+      </c>
+      <c r="S115">
+        <v>11</v>
+      </c>
+      <c r="T115">
+        <v>4</v>
       </c>
       <c r="W115">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X115">
         <f t="shared" si="3"/>
@@ -4827,16 +6107,51 @@
         <v>10</v>
       </c>
       <c r="B116" s="1">
-        <f t="shared" si="5"/>
-        <v>56039</v>
+        <v>45682</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116">
+        <v>11.5</v>
+      </c>
+      <c r="F116">
+        <v>12.5</v>
+      </c>
+      <c r="M116">
+        <v>19</v>
+      </c>
+      <c r="N116">
+        <v>38</v>
+      </c>
+      <c r="O116">
+        <v>8</v>
+      </c>
+      <c r="P116">
+        <v>21</v>
+      </c>
+      <c r="Q116">
+        <v>6</v>
+      </c>
+      <c r="R116">
+        <v>3</v>
+      </c>
+      <c r="S116">
+        <v>12</v>
+      </c>
+      <c r="T116">
+        <v>9</v>
       </c>
       <c r="W116">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X116">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.3">
@@ -4844,8 +6159,43 @@
         <v>10</v>
       </c>
       <c r="B117" s="1">
-        <f t="shared" si="5"/>
-        <v>56399</v>
+        <v>45683</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>-24.5</v>
+      </c>
+      <c r="F117">
+        <v>-22.5</v>
+      </c>
+      <c r="M117">
+        <v>14</v>
+      </c>
+      <c r="N117">
+        <v>15</v>
+      </c>
+      <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="P117">
+        <v>6</v>
+      </c>
+      <c r="Q117">
+        <v>5</v>
+      </c>
+      <c r="R117">
+        <v>6</v>
+      </c>
+      <c r="S117">
+        <v>11</v>
+      </c>
+      <c r="T117">
+        <v>11</v>
       </c>
       <c r="W117">
         <f t="shared" si="2"/>
@@ -4853,24 +6203,59 @@
       </c>
       <c r="X117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B118" s="1">
-        <f t="shared" si="5"/>
-        <v>56759</v>
+        <v>45702</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>-18.5</v>
+      </c>
+      <c r="F118">
+        <v>-19.5</v>
+      </c>
+      <c r="M118">
+        <v>17</v>
+      </c>
+      <c r="N118">
+        <v>22</v>
+      </c>
+      <c r="O118">
+        <v>4</v>
+      </c>
+      <c r="P118">
+        <v>9</v>
+      </c>
+      <c r="Q118">
+        <v>7</v>
+      </c>
+      <c r="R118">
+        <v>4</v>
+      </c>
+      <c r="S118">
+        <v>10</v>
+      </c>
+      <c r="T118">
+        <v>11</v>
       </c>
       <c r="W118">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.3">
@@ -4878,16 +6263,51 @@
         <v>11</v>
       </c>
       <c r="B119" s="1">
-        <f t="shared" si="5"/>
-        <v>57119</v>
+        <v>45702</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119">
+        <v>10.5</v>
+      </c>
+      <c r="F119">
+        <v>12.5</v>
+      </c>
+      <c r="M119">
+        <v>19</v>
+      </c>
+      <c r="N119">
+        <v>22</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119">
+        <v>7</v>
+      </c>
+      <c r="Q119">
+        <v>6</v>
+      </c>
+      <c r="R119">
+        <v>7</v>
+      </c>
+      <c r="S119">
+        <v>11</v>
+      </c>
+      <c r="T119">
+        <v>14</v>
       </c>
       <c r="W119">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="X119">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.3">
@@ -4895,16 +6315,51 @@
         <v>11</v>
       </c>
       <c r="B120" s="1">
-        <f t="shared" si="5"/>
-        <v>57479</v>
+        <v>45703</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>-6.5</v>
+      </c>
+      <c r="F120">
+        <v>-3.5</v>
+      </c>
+      <c r="M120">
+        <v>30</v>
+      </c>
+      <c r="N120">
+        <v>23</v>
+      </c>
+      <c r="O120">
+        <v>14</v>
+      </c>
+      <c r="P120">
+        <v>17</v>
+      </c>
+      <c r="Q120">
+        <v>14</v>
+      </c>
+      <c r="R120">
+        <v>3</v>
+      </c>
+      <c r="S120">
+        <v>14</v>
+      </c>
+      <c r="T120">
+        <v>7</v>
       </c>
       <c r="W120">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X120">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.3">
@@ -4912,16 +6367,51 @@
         <v>11</v>
       </c>
       <c r="B121" s="1">
-        <f t="shared" si="5"/>
-        <v>57839</v>
+        <v>45703</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>-10.5</v>
+      </c>
+      <c r="F121">
+        <v>-8.5</v>
+      </c>
+      <c r="M121">
+        <v>19</v>
+      </c>
+      <c r="N121">
+        <v>29</v>
+      </c>
+      <c r="O121">
+        <v>4</v>
+      </c>
+      <c r="P121">
+        <v>9</v>
+      </c>
+      <c r="Q121">
+        <v>7</v>
+      </c>
+      <c r="R121">
+        <v>8</v>
+      </c>
+      <c r="S121">
+        <v>9</v>
+      </c>
+      <c r="T121">
+        <v>17</v>
       </c>
       <c r="W121">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="X121">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.3">
@@ -4929,16 +6419,51 @@
         <v>11</v>
       </c>
       <c r="B122" s="1">
-        <f t="shared" si="5"/>
-        <v>58199</v>
+        <v>45703</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>3.5</v>
+      </c>
+      <c r="F122">
+        <v>-1.5</v>
+      </c>
+      <c r="M122">
+        <v>34</v>
+      </c>
+      <c r="N122">
+        <v>19</v>
+      </c>
+      <c r="O122">
+        <v>5</v>
+      </c>
+      <c r="P122">
+        <v>6</v>
+      </c>
+      <c r="Q122">
+        <v>6</v>
+      </c>
+      <c r="R122">
+        <v>5</v>
+      </c>
+      <c r="S122">
+        <v>7</v>
+      </c>
+      <c r="T122">
+        <v>17</v>
       </c>
       <c r="W122">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="X122">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.3">
@@ -4946,16 +6471,51 @@
         <v>11</v>
       </c>
       <c r="B123" s="1">
-        <f t="shared" si="5"/>
-        <v>58559</v>
+        <v>45703</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123">
+        <v>-12.5</v>
+      </c>
+      <c r="F123">
+        <v>-14.5</v>
+      </c>
+      <c r="M123">
+        <v>29</v>
+      </c>
+      <c r="N123">
+        <v>8</v>
+      </c>
+      <c r="O123">
+        <v>4</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>6</v>
+      </c>
+      <c r="R123">
+        <v>7</v>
+      </c>
+      <c r="S123">
+        <v>6</v>
+      </c>
+      <c r="T123">
+        <v>15</v>
       </c>
       <c r="W123">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="X123">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.3">
@@ -4963,16 +6523,51 @@
         <v>11</v>
       </c>
       <c r="B124" s="1">
-        <f t="shared" si="5"/>
-        <v>58919</v>
+        <v>45703</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124">
+        <v>-16.5</v>
+      </c>
+      <c r="F124">
+        <v>-12.5</v>
+      </c>
+      <c r="M124">
+        <v>24</v>
+      </c>
+      <c r="N124">
+        <v>19</v>
+      </c>
+      <c r="O124">
+        <v>8</v>
+      </c>
+      <c r="P124">
+        <v>6</v>
+      </c>
+      <c r="Q124">
+        <v>3</v>
+      </c>
+      <c r="R124">
+        <v>6</v>
+      </c>
+      <c r="S124">
+        <v>7</v>
+      </c>
+      <c r="T124">
+        <v>9</v>
       </c>
       <c r="W124">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X124">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.3">
@@ -4980,33 +6575,103 @@
         <v>11</v>
       </c>
       <c r="B125" s="1">
-        <f t="shared" si="5"/>
-        <v>59279</v>
+        <v>45703</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125">
+        <v>12.5</v>
+      </c>
+      <c r="F125">
+        <v>8.5</v>
+      </c>
+      <c r="M125">
+        <v>20</v>
+      </c>
+      <c r="N125">
+        <v>45</v>
+      </c>
+      <c r="O125">
+        <v>3</v>
+      </c>
+      <c r="P125">
+        <v>17</v>
+      </c>
+      <c r="Q125">
+        <v>3</v>
+      </c>
+      <c r="R125">
+        <v>10</v>
+      </c>
+      <c r="S125">
+        <v>10</v>
+      </c>
+      <c r="T125">
+        <v>12</v>
       </c>
       <c r="W125">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X125">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A126">
+        <v>12</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45716</v>
+      </c>
+      <c r="C126" t="s">
         <v>11</v>
       </c>
-      <c r="B126" s="1">
-        <f t="shared" si="5"/>
-        <v>59639</v>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126">
+        <v>-9.5</v>
+      </c>
+      <c r="F126">
+        <v>-11.5</v>
+      </c>
+      <c r="M126">
+        <v>28</v>
+      </c>
+      <c r="N126">
+        <v>34</v>
+      </c>
+      <c r="O126">
+        <v>11</v>
+      </c>
+      <c r="P126">
+        <v>7</v>
+      </c>
+      <c r="Q126">
+        <v>8</v>
+      </c>
+      <c r="R126">
+        <v>6</v>
+      </c>
+      <c r="S126">
+        <v>10</v>
+      </c>
+      <c r="T126">
+        <v>8</v>
       </c>
       <c r="W126">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X126">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.3">
@@ -5014,16 +6679,51 @@
         <v>12</v>
       </c>
       <c r="B127" s="1">
-        <f t="shared" si="5"/>
-        <v>59999</v>
+        <v>45716</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>-8.5</v>
+      </c>
+      <c r="F127">
+        <v>-6.5</v>
+      </c>
+      <c r="M127">
+        <v>31</v>
+      </c>
+      <c r="N127">
+        <v>21</v>
+      </c>
+      <c r="O127">
+        <v>9</v>
+      </c>
+      <c r="P127">
+        <v>4</v>
+      </c>
+      <c r="Q127">
+        <v>6</v>
+      </c>
+      <c r="R127">
+        <v>4</v>
+      </c>
+      <c r="S127">
+        <v>9</v>
+      </c>
+      <c r="T127">
+        <v>12</v>
       </c>
       <c r="W127">
-        <f t="shared" ref="W127:W190" si="6">S127-T127</f>
-        <v>0</v>
+        <f t="shared" ref="W127:W190" si="4">S127-T127</f>
+        <v>-3</v>
       </c>
       <c r="X127">
-        <f t="shared" ref="X127:X190" si="7">R127-Q127</f>
-        <v>0</v>
+        <f t="shared" ref="X127:X190" si="5">R127-Q127</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.3">
@@ -5031,16 +6731,51 @@
         <v>12</v>
       </c>
       <c r="B128" s="1">
+        <v>45717</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128">
+        <v>-1.5</v>
+      </c>
+      <c r="F128">
+        <v>-3.5</v>
+      </c>
+      <c r="M128">
+        <v>38</v>
+      </c>
+      <c r="N128">
+        <v>14</v>
+      </c>
+      <c r="O128">
+        <v>11</v>
+      </c>
+      <c r="P128">
+        <v>7</v>
+      </c>
+      <c r="Q128">
+        <v>11</v>
+      </c>
+      <c r="R128">
+        <v>9</v>
+      </c>
+      <c r="S128">
+        <v>7</v>
+      </c>
+      <c r="T128">
+        <v>13</v>
+      </c>
+      <c r="W128">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="X128">
         <f t="shared" si="5"/>
-        <v>60359</v>
-      </c>
-      <c r="W128">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X128">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.3">
@@ -5048,16 +6783,51 @@
         <v>12</v>
       </c>
       <c r="B129" s="1">
+        <v>45717</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>-13.5</v>
+      </c>
+      <c r="F129">
+        <v>-14.5</v>
+      </c>
+      <c r="M129">
+        <v>16</v>
+      </c>
+      <c r="N129">
+        <v>19</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>7</v>
+      </c>
+      <c r="R129">
+        <v>3</v>
+      </c>
+      <c r="S129">
+        <v>12</v>
+      </c>
+      <c r="T129">
+        <v>11</v>
+      </c>
+      <c r="W129">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X129">
         <f t="shared" si="5"/>
-        <v>60719</v>
-      </c>
-      <c r="W129">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X129">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.3">
@@ -5065,16 +6835,51 @@
         <v>12</v>
       </c>
       <c r="B130" s="1">
+        <v>45717</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130">
+        <v>-18.5</v>
+      </c>
+      <c r="F130">
+        <v>-18.5</v>
+      </c>
+      <c r="M130">
+        <v>42</v>
+      </c>
+      <c r="N130">
+        <v>24</v>
+      </c>
+      <c r="O130">
+        <v>6</v>
+      </c>
+      <c r="P130">
+        <v>10</v>
+      </c>
+      <c r="Q130">
+        <v>6</v>
+      </c>
+      <c r="R130">
+        <v>3</v>
+      </c>
+      <c r="S130">
+        <v>7</v>
+      </c>
+      <c r="T130">
+        <v>12</v>
+      </c>
+      <c r="W130">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="X130">
         <f t="shared" si="5"/>
-        <v>61079</v>
-      </c>
-      <c r="W130">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X130">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.3">
@@ -5082,16 +6887,51 @@
         <v>12</v>
       </c>
       <c r="B131" s="1">
+        <v>45717</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131">
+        <v>-6.5</v>
+      </c>
+      <c r="F131">
+        <v>-6.5</v>
+      </c>
+      <c r="M131">
+        <v>30</v>
+      </c>
+      <c r="N131">
+        <v>28</v>
+      </c>
+      <c r="O131">
+        <v>2</v>
+      </c>
+      <c r="P131">
+        <v>9</v>
+      </c>
+      <c r="Q131">
+        <v>3</v>
+      </c>
+      <c r="R131">
+        <v>5</v>
+      </c>
+      <c r="S131">
+        <v>6</v>
+      </c>
+      <c r="T131">
+        <v>10</v>
+      </c>
+      <c r="W131">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="X131">
         <f t="shared" si="5"/>
-        <v>61439</v>
-      </c>
-      <c r="W131">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X131">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.3">
@@ -5099,16 +6939,51 @@
         <v>12</v>
       </c>
       <c r="B132" s="1">
+        <v>45717</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>-14.5</v>
+      </c>
+      <c r="F132">
+        <v>-13.5</v>
+      </c>
+      <c r="M132">
+        <v>38</v>
+      </c>
+      <c r="N132">
+        <v>30</v>
+      </c>
+      <c r="O132">
+        <v>12</v>
+      </c>
+      <c r="P132">
+        <v>12</v>
+      </c>
+      <c r="Q132">
+        <v>8</v>
+      </c>
+      <c r="R132">
+        <v>5</v>
+      </c>
+      <c r="S132">
+        <v>11</v>
+      </c>
+      <c r="T132">
+        <v>4</v>
+      </c>
+      <c r="W132">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="X132">
         <f t="shared" si="5"/>
-        <v>61799</v>
-      </c>
-      <c r="W132">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X132">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.3">
@@ -5116,16 +6991,51 @@
         <v>12</v>
       </c>
       <c r="B133" s="1">
+        <v>45717</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133">
+        <v>-15.5</v>
+      </c>
+      <c r="F133">
+        <v>-15.5</v>
+      </c>
+      <c r="M133">
+        <v>31</v>
+      </c>
+      <c r="N133">
+        <v>32</v>
+      </c>
+      <c r="O133">
+        <v>3</v>
+      </c>
+      <c r="P133">
+        <v>6</v>
+      </c>
+      <c r="Q133">
+        <v>7</v>
+      </c>
+      <c r="R133">
+        <v>4</v>
+      </c>
+      <c r="S133">
+        <v>9</v>
+      </c>
+      <c r="T133">
+        <v>10</v>
+      </c>
+      <c r="W133">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X133">
         <f t="shared" si="5"/>
-        <v>62159</v>
-      </c>
-      <c r="W133">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X133">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.3">
@@ -5133,15 +7043,50 @@
         <v>12</v>
       </c>
       <c r="B134" s="1">
+        <v>45724</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134">
+        <v>-8.5</v>
+      </c>
+      <c r="F134">
+        <v>-8.5</v>
+      </c>
+      <c r="M134">
+        <v>25</v>
+      </c>
+      <c r="N134">
+        <v>22</v>
+      </c>
+      <c r="O134">
+        <v>10</v>
+      </c>
+      <c r="P134">
+        <v>6</v>
+      </c>
+      <c r="Q134">
+        <v>7</v>
+      </c>
+      <c r="R134">
+        <v>7</v>
+      </c>
+      <c r="S134">
+        <v>11</v>
+      </c>
+      <c r="T134">
+        <v>9</v>
+      </c>
+      <c r="W134">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X134">
         <f t="shared" si="5"/>
-        <v>62519</v>
-      </c>
-      <c r="W134">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X134">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5150,16 +7095,51 @@
         <v>13</v>
       </c>
       <c r="B135" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135">
+        <v>-8.5</v>
+      </c>
+      <c r="F135">
+        <v>-5.5</v>
+      </c>
+      <c r="M135">
+        <v>28</v>
+      </c>
+      <c r="N135">
+        <v>25</v>
+      </c>
+      <c r="O135">
+        <v>12</v>
+      </c>
+      <c r="P135">
+        <v>6</v>
+      </c>
+      <c r="Q135">
+        <v>8</v>
+      </c>
+      <c r="R135">
+        <v>11</v>
+      </c>
+      <c r="S135">
+        <v>8</v>
+      </c>
+      <c r="T135">
+        <v>14</v>
+      </c>
+      <c r="W135">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="X135">
         <f t="shared" si="5"/>
-        <v>62879</v>
-      </c>
-      <c r="W135">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X135">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.3">
@@ -5167,16 +7147,51 @@
         <v>13</v>
       </c>
       <c r="B136" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>-5.5</v>
+      </c>
+      <c r="F136">
+        <v>-5.5</v>
+      </c>
+      <c r="M136">
+        <v>20</v>
+      </c>
+      <c r="N136">
+        <v>17</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>3</v>
+      </c>
+      <c r="Q136">
+        <v>6</v>
+      </c>
+      <c r="R136">
+        <v>7</v>
+      </c>
+      <c r="S136">
+        <v>13</v>
+      </c>
+      <c r="T136">
+        <v>12</v>
+      </c>
+      <c r="W136">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X136">
         <f t="shared" si="5"/>
-        <v>63239</v>
-      </c>
-      <c r="W136">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X136">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.3">
@@ -5184,16 +7199,51 @@
         <v>13</v>
       </c>
       <c r="B137" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137">
+        <v>-23.5</v>
+      </c>
+      <c r="F137">
+        <v>-21.5</v>
+      </c>
+      <c r="M137">
+        <v>35</v>
+      </c>
+      <c r="N137">
+        <v>34</v>
+      </c>
+      <c r="O137">
+        <v>3</v>
+      </c>
+      <c r="P137">
+        <v>11</v>
+      </c>
+      <c r="Q137">
+        <v>3</v>
+      </c>
+      <c r="R137">
+        <v>6</v>
+      </c>
+      <c r="S137">
+        <v>4</v>
+      </c>
+      <c r="T137">
+        <v>10</v>
+      </c>
+      <c r="W137">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="X137">
         <f t="shared" si="5"/>
-        <v>63599</v>
-      </c>
-      <c r="W137">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X137">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.3">
@@ -5201,15 +7251,50 @@
         <v>13</v>
       </c>
       <c r="B138" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138">
+        <v>-9.5</v>
+      </c>
+      <c r="F138">
+        <v>-3.5</v>
+      </c>
+      <c r="M138">
+        <v>21</v>
+      </c>
+      <c r="N138">
+        <v>18</v>
+      </c>
+      <c r="O138">
+        <v>8</v>
+      </c>
+      <c r="P138">
+        <v>6</v>
+      </c>
+      <c r="Q138">
+        <v>5</v>
+      </c>
+      <c r="R138">
+        <v>5</v>
+      </c>
+      <c r="S138">
+        <v>8</v>
+      </c>
+      <c r="T138">
+        <v>11</v>
+      </c>
+      <c r="W138">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="X138">
         <f t="shared" si="5"/>
-        <v>63959</v>
-      </c>
-      <c r="W138">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X138">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5218,16 +7303,51 @@
         <v>13</v>
       </c>
       <c r="B139" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139">
+        <v>-8.5</v>
+      </c>
+      <c r="F139">
+        <v>-8.5</v>
+      </c>
+      <c r="M139">
+        <v>21</v>
+      </c>
+      <c r="N139">
+        <v>20</v>
+      </c>
+      <c r="O139">
+        <v>3</v>
+      </c>
+      <c r="P139">
+        <v>6</v>
+      </c>
+      <c r="Q139">
+        <v>7</v>
+      </c>
+      <c r="R139">
+        <v>6</v>
+      </c>
+      <c r="S139">
+        <v>12</v>
+      </c>
+      <c r="T139">
+        <v>17</v>
+      </c>
+      <c r="W139">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="X139">
         <f t="shared" si="5"/>
-        <v>64319</v>
-      </c>
-      <c r="W139">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X139">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.3">
@@ -5235,16 +7355,51 @@
         <v>13</v>
       </c>
       <c r="B140" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>2.5</v>
+      </c>
+      <c r="F140">
+        <v>1.5</v>
+      </c>
+      <c r="M140">
+        <v>17</v>
+      </c>
+      <c r="N140">
+        <v>29</v>
+      </c>
+      <c r="O140">
+        <v>5</v>
+      </c>
+      <c r="P140">
+        <v>9</v>
+      </c>
+      <c r="Q140">
+        <v>10</v>
+      </c>
+      <c r="R140">
+        <v>8</v>
+      </c>
+      <c r="S140">
+        <v>8</v>
+      </c>
+      <c r="T140">
+        <v>9</v>
+      </c>
+      <c r="W140">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X140">
         <f t="shared" si="5"/>
-        <v>64679</v>
-      </c>
-      <c r="W140">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X140">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.3">
@@ -5252,16 +7407,51 @@
         <v>13</v>
       </c>
       <c r="B141" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>6.5</v>
+      </c>
+      <c r="F141">
+        <v>5.5</v>
+      </c>
+      <c r="M141">
+        <v>30</v>
+      </c>
+      <c r="N141">
+        <v>34</v>
+      </c>
+      <c r="O141">
+        <v>7</v>
+      </c>
+      <c r="P141">
+        <v>3</v>
+      </c>
+      <c r="Q141">
+        <v>8</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>15</v>
+      </c>
+      <c r="T141">
+        <v>13</v>
+      </c>
+      <c r="W141">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X141">
         <f t="shared" si="5"/>
-        <v>65039</v>
-      </c>
-      <c r="W141">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X141">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.3">
@@ -5269,16 +7459,51 @@
         <v>13</v>
       </c>
       <c r="B142" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142">
+        <v>-5.5</v>
+      </c>
+      <c r="F142">
+        <v>-4.5</v>
+      </c>
+      <c r="M142">
+        <v>43</v>
+      </c>
+      <c r="N142">
+        <v>40</v>
+      </c>
+      <c r="O142">
+        <v>12</v>
+      </c>
+      <c r="P142">
+        <v>14</v>
+      </c>
+      <c r="Q142">
+        <v>6</v>
+      </c>
+      <c r="R142">
+        <v>5</v>
+      </c>
+      <c r="S142">
+        <v>8</v>
+      </c>
+      <c r="T142">
+        <v>10</v>
+      </c>
+      <c r="W142">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="X142">
         <f t="shared" si="5"/>
-        <v>65399</v>
-      </c>
-      <c r="W142">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X142">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.3">
@@ -5286,15 +7511,26 @@
         <v>14</v>
       </c>
       <c r="B143" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>3.5</v>
+      </c>
+      <c r="F143">
+        <v>3.5</v>
+      </c>
+      <c r="W143">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X143">
         <f t="shared" si="5"/>
-        <v>65759</v>
-      </c>
-      <c r="W143">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X143">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5303,15 +7539,26 @@
         <v>14</v>
       </c>
       <c r="B144" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144">
+        <v>-18.5</v>
+      </c>
+      <c r="F144">
+        <v>-18.5</v>
+      </c>
+      <c r="W144">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X144">
         <f t="shared" si="5"/>
-        <v>66119</v>
-      </c>
-      <c r="W144">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X144">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5320,15 +7567,26 @@
         <v>14</v>
       </c>
       <c r="B145" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>-20.5</v>
+      </c>
+      <c r="F145">
+        <v>-20.5</v>
+      </c>
+      <c r="W145">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X145">
         <f t="shared" si="5"/>
-        <v>66479</v>
-      </c>
-      <c r="W145">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X145">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5337,15 +7595,26 @@
         <v>14</v>
       </c>
       <c r="B146" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146">
+        <v>1.5</v>
+      </c>
+      <c r="F146">
+        <v>1.5</v>
+      </c>
+      <c r="W146">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X146">
         <f t="shared" si="5"/>
-        <v>66839</v>
-      </c>
-      <c r="W146">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X146">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5354,15 +7623,26 @@
         <v>14</v>
       </c>
       <c r="B147" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147">
+        <v>-4.5</v>
+      </c>
+      <c r="F147">
+        <v>-4.5</v>
+      </c>
+      <c r="W147">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X147">
         <f t="shared" si="5"/>
-        <v>67199</v>
-      </c>
-      <c r="W147">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X147">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5371,15 +7651,26 @@
         <v>14</v>
       </c>
       <c r="B148" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148">
+        <v>-5.5</v>
+      </c>
+      <c r="F148">
+        <v>-5.5</v>
+      </c>
+      <c r="W148">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X148">
         <f t="shared" si="5"/>
-        <v>67559</v>
-      </c>
-      <c r="W148">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X148">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5388,15 +7679,26 @@
         <v>14</v>
       </c>
       <c r="B149" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149">
+        <v>-8.5</v>
+      </c>
+      <c r="F149">
+        <v>-8.5</v>
+      </c>
+      <c r="W149">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X149">
         <f t="shared" si="5"/>
-        <v>67919</v>
-      </c>
-      <c r="W149">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X149">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5405,15 +7707,26 @@
         <v>14</v>
       </c>
       <c r="B150" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150">
+        <v>-13.5</v>
+      </c>
+      <c r="F150">
+        <v>-13.5</v>
+      </c>
+      <c r="W150">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X150">
         <f t="shared" si="5"/>
-        <v>68279</v>
-      </c>
-      <c r="W150">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X150">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5422,15 +7735,15 @@
         <v>15</v>
       </c>
       <c r="B151" s="1">
+        <f t="shared" ref="B151:B189" si="6">B150+2</f>
+        <v>45747</v>
+      </c>
+      <c r="W151">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X151">
         <f t="shared" si="5"/>
-        <v>68639</v>
-      </c>
-      <c r="W151">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X151">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5439,15 +7752,15 @@
         <v>15</v>
       </c>
       <c r="B152" s="1">
+        <f t="shared" si="6"/>
+        <v>45749</v>
+      </c>
+      <c r="W152">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X152">
         <f t="shared" si="5"/>
-        <v>68999</v>
-      </c>
-      <c r="W152">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X152">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5456,15 +7769,15 @@
         <v>15</v>
       </c>
       <c r="B153" s="1">
+        <f t="shared" si="6"/>
+        <v>45751</v>
+      </c>
+      <c r="W153">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X153">
         <f t="shared" si="5"/>
-        <v>69359</v>
-      </c>
-      <c r="W153">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X153">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5473,15 +7786,15 @@
         <v>15</v>
       </c>
       <c r="B154" s="1">
+        <f t="shared" si="6"/>
+        <v>45753</v>
+      </c>
+      <c r="W154">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X154">
         <f t="shared" si="5"/>
-        <v>69719</v>
-      </c>
-      <c r="W154">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X154">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5490,15 +7803,15 @@
         <v>15</v>
       </c>
       <c r="B155" s="1">
+        <f t="shared" si="6"/>
+        <v>45755</v>
+      </c>
+      <c r="W155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X155">
         <f t="shared" si="5"/>
-        <v>70079</v>
-      </c>
-      <c r="W155">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X155">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5507,15 +7820,15 @@
         <v>15</v>
       </c>
       <c r="B156" s="1">
+        <f t="shared" si="6"/>
+        <v>45757</v>
+      </c>
+      <c r="W156">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X156">
         <f t="shared" si="5"/>
-        <v>70439</v>
-      </c>
-      <c r="W156">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X156">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5524,15 +7837,15 @@
         <v>15</v>
       </c>
       <c r="B157" s="1">
+        <f t="shared" si="6"/>
+        <v>45759</v>
+      </c>
+      <c r="W157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X157">
         <f t="shared" si="5"/>
-        <v>70799</v>
-      </c>
-      <c r="W157">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X157">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5541,15 +7854,15 @@
         <v>15</v>
       </c>
       <c r="B158" s="1">
+        <f t="shared" si="6"/>
+        <v>45761</v>
+      </c>
+      <c r="W158">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X158">
         <f t="shared" si="5"/>
-        <v>71159</v>
-      </c>
-      <c r="W158">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5558,15 +7871,15 @@
         <v>16</v>
       </c>
       <c r="B159" s="1">
+        <f t="shared" si="6"/>
+        <v>45763</v>
+      </c>
+      <c r="W159">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X159">
         <f t="shared" si="5"/>
-        <v>71519</v>
-      </c>
-      <c r="W159">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X159">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5575,15 +7888,15 @@
         <v>16</v>
       </c>
       <c r="B160" s="1">
+        <f t="shared" si="6"/>
+        <v>45765</v>
+      </c>
+      <c r="W160">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X160">
         <f t="shared" si="5"/>
-        <v>71879</v>
-      </c>
-      <c r="W160">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X160">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5592,15 +7905,15 @@
         <v>16</v>
       </c>
       <c r="B161" s="1">
+        <f t="shared" si="6"/>
+        <v>45767</v>
+      </c>
+      <c r="W161">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X161">
         <f t="shared" si="5"/>
-        <v>72239</v>
-      </c>
-      <c r="W161">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X161">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5609,15 +7922,15 @@
         <v>16</v>
       </c>
       <c r="B162" s="1">
+        <f t="shared" si="6"/>
+        <v>45769</v>
+      </c>
+      <c r="W162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X162">
         <f t="shared" si="5"/>
-        <v>72599</v>
-      </c>
-      <c r="W162">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X162">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5626,15 +7939,15 @@
         <v>16</v>
       </c>
       <c r="B163" s="1">
+        <f t="shared" si="6"/>
+        <v>45771</v>
+      </c>
+      <c r="W163">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X163">
         <f t="shared" si="5"/>
-        <v>72959</v>
-      </c>
-      <c r="W163">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X163">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5643,15 +7956,15 @@
         <v>16</v>
       </c>
       <c r="B164" s="1">
+        <f t="shared" si="6"/>
+        <v>45773</v>
+      </c>
+      <c r="W164">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X164">
         <f t="shared" si="5"/>
-        <v>73319</v>
-      </c>
-      <c r="W164">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X164">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5660,15 +7973,15 @@
         <v>16</v>
       </c>
       <c r="B165" s="1">
+        <f t="shared" si="6"/>
+        <v>45775</v>
+      </c>
+      <c r="W165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X165">
         <f t="shared" si="5"/>
-        <v>73679</v>
-      </c>
-      <c r="W165">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X165">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5677,15 +7990,15 @@
         <v>16</v>
       </c>
       <c r="B166" s="1">
+        <f t="shared" si="6"/>
+        <v>45777</v>
+      </c>
+      <c r="W166">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X166">
         <f t="shared" si="5"/>
-        <v>74039</v>
-      </c>
-      <c r="W166">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X166">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5694,15 +8007,15 @@
         <v>17</v>
       </c>
       <c r="B167" s="1">
+        <f t="shared" si="6"/>
+        <v>45779</v>
+      </c>
+      <c r="W167">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X167">
         <f t="shared" si="5"/>
-        <v>74399</v>
-      </c>
-      <c r="W167">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X167">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5711,15 +8024,15 @@
         <v>17</v>
       </c>
       <c r="B168" s="1">
+        <f t="shared" si="6"/>
+        <v>45781</v>
+      </c>
+      <c r="W168">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X168">
         <f t="shared" si="5"/>
-        <v>74759</v>
-      </c>
-      <c r="W168">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X168">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5728,15 +8041,15 @@
         <v>17</v>
       </c>
       <c r="B169" s="1">
+        <f t="shared" si="6"/>
+        <v>45783</v>
+      </c>
+      <c r="W169">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X169">
         <f t="shared" si="5"/>
-        <v>75119</v>
-      </c>
-      <c r="W169">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X169">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5745,15 +8058,15 @@
         <v>17</v>
       </c>
       <c r="B170" s="1">
+        <f t="shared" si="6"/>
+        <v>45785</v>
+      </c>
+      <c r="W170">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X170">
         <f t="shared" si="5"/>
-        <v>75479</v>
-      </c>
-      <c r="W170">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X170">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5762,15 +8075,15 @@
         <v>17</v>
       </c>
       <c r="B171" s="1">
+        <f t="shared" si="6"/>
+        <v>45787</v>
+      </c>
+      <c r="W171">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X171">
         <f t="shared" si="5"/>
-        <v>75839</v>
-      </c>
-      <c r="W171">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X171">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5779,15 +8092,15 @@
         <v>17</v>
       </c>
       <c r="B172" s="1">
+        <f t="shared" si="6"/>
+        <v>45789</v>
+      </c>
+      <c r="W172">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X172">
         <f t="shared" si="5"/>
-        <v>76199</v>
-      </c>
-      <c r="W172">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X172">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5796,15 +8109,15 @@
         <v>17</v>
       </c>
       <c r="B173" s="1">
+        <f t="shared" si="6"/>
+        <v>45791</v>
+      </c>
+      <c r="W173">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X173">
         <f t="shared" si="5"/>
-        <v>76559</v>
-      </c>
-      <c r="W173">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X173">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5813,15 +8126,15 @@
         <v>17</v>
       </c>
       <c r="B174" s="1">
+        <f t="shared" si="6"/>
+        <v>45793</v>
+      </c>
+      <c r="W174">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X174">
         <f t="shared" si="5"/>
-        <v>76919</v>
-      </c>
-      <c r="W174">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X174">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5830,15 +8143,15 @@
         <v>18</v>
       </c>
       <c r="B175" s="1">
+        <f t="shared" si="6"/>
+        <v>45795</v>
+      </c>
+      <c r="W175">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X175">
         <f t="shared" si="5"/>
-        <v>77279</v>
-      </c>
-      <c r="W175">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X175">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5847,15 +8160,15 @@
         <v>18</v>
       </c>
       <c r="B176" s="1">
-        <f t="shared" ref="B176:B189" si="8">B175+360</f>
-        <v>77639</v>
+        <f t="shared" si="6"/>
+        <v>45797</v>
       </c>
       <c r="W176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5864,15 +8177,15 @@
         <v>18</v>
       </c>
       <c r="B177" s="1">
-        <f t="shared" si="8"/>
-        <v>77999</v>
+        <f t="shared" si="6"/>
+        <v>45799</v>
       </c>
       <c r="W177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5881,15 +8194,15 @@
         <v>18</v>
       </c>
       <c r="B178" s="1">
-        <f t="shared" si="8"/>
-        <v>78359</v>
+        <f t="shared" si="6"/>
+        <v>45801</v>
       </c>
       <c r="W178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5898,15 +8211,15 @@
         <v>18</v>
       </c>
       <c r="B179" s="1">
-        <f t="shared" si="8"/>
-        <v>78719</v>
+        <f t="shared" si="6"/>
+        <v>45803</v>
       </c>
       <c r="W179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5915,15 +8228,15 @@
         <v>18</v>
       </c>
       <c r="B180" s="1">
-        <f t="shared" si="8"/>
-        <v>79079</v>
+        <f t="shared" si="6"/>
+        <v>45805</v>
       </c>
       <c r="W180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5932,15 +8245,15 @@
         <v>18</v>
       </c>
       <c r="B181" s="1">
-        <f t="shared" si="8"/>
-        <v>79439</v>
+        <f t="shared" si="6"/>
+        <v>45807</v>
       </c>
       <c r="W181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5949,15 +8262,15 @@
         <v>18</v>
       </c>
       <c r="B182" s="1">
-        <f t="shared" si="8"/>
-        <v>79799</v>
+        <f t="shared" si="6"/>
+        <v>45809</v>
       </c>
       <c r="W182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5966,15 +8279,15 @@
         <v>18</v>
       </c>
       <c r="B183" s="1">
-        <f t="shared" si="8"/>
-        <v>80159</v>
+        <f t="shared" si="6"/>
+        <v>45811</v>
       </c>
       <c r="W183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5983,15 +8296,15 @@
         <v>18</v>
       </c>
       <c r="B184" s="1">
-        <f t="shared" si="8"/>
-        <v>80519</v>
+        <f t="shared" si="6"/>
+        <v>45813</v>
       </c>
       <c r="W184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6000,15 +8313,15 @@
         <v>18</v>
       </c>
       <c r="B185" s="1">
-        <f t="shared" si="8"/>
-        <v>80879</v>
+        <f t="shared" si="6"/>
+        <v>45815</v>
       </c>
       <c r="W185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6017,15 +8330,15 @@
         <v>18</v>
       </c>
       <c r="B186" s="1">
-        <f t="shared" si="8"/>
-        <v>81239</v>
+        <f t="shared" si="6"/>
+        <v>45817</v>
       </c>
       <c r="W186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6034,15 +8347,15 @@
         <v>19</v>
       </c>
       <c r="B187" s="1">
-        <f t="shared" si="8"/>
-        <v>81599</v>
+        <f t="shared" si="6"/>
+        <v>45819</v>
       </c>
       <c r="W187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6051,15 +8364,15 @@
         <v>19</v>
       </c>
       <c r="B188" s="1">
-        <f t="shared" si="8"/>
-        <v>81959</v>
+        <f t="shared" si="6"/>
+        <v>45821</v>
       </c>
       <c r="W188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6068,455 +8381,455 @@
         <v>20</v>
       </c>
       <c r="B189" s="1">
-        <f t="shared" si="8"/>
-        <v>82319</v>
+        <f t="shared" si="6"/>
+        <v>45823</v>
       </c>
       <c r="W189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W191">
-        <f t="shared" ref="W191:W233" si="9">S191-T191</f>
+        <f t="shared" ref="W191:W233" si="7">S191-T191</f>
         <v>0</v>
       </c>
       <c r="X191">
-        <f t="shared" ref="X191:X233" si="10">R191-Q191</f>
+        <f t="shared" ref="X191:X233" si="8">R191-Q191</f>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X193">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X194">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X195">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>

--- a/rugby_results_urc_2024_2025.xlsx
+++ b/rugby_results_urc_2024_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\rugby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E88742-83D6-4318-9558-5F228EE7CBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7328E6FC-E25F-47DF-9D22-198A8D24C8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F91CF1C2-8A5F-42AD-9533-1E11BD16044D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="77">
   <si>
     <t>Stormers</t>
   </si>
@@ -611,10 +611,10 @@
   <dimension ref="A1:AA233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F144" sqref="F144"/>
+      <selection pane="bottomRight" activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7520,18 +7520,42 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="F143">
         <v>3.5</v>
       </c>
+      <c r="M143">
+        <v>38</v>
+      </c>
+      <c r="N143">
+        <v>34</v>
+      </c>
+      <c r="O143">
+        <v>12</v>
+      </c>
+      <c r="P143">
+        <v>6</v>
+      </c>
+      <c r="Q143">
+        <v>2</v>
+      </c>
+      <c r="R143">
+        <v>7</v>
+      </c>
+      <c r="S143">
+        <v>11</v>
+      </c>
+      <c r="T143">
+        <v>9</v>
+      </c>
       <c r="W143">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X143">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.3">
@@ -7548,18 +7572,42 @@
         <v>6</v>
       </c>
       <c r="E144">
-        <v>-18.5</v>
+        <v>-19.5</v>
       </c>
       <c r="F144">
         <v>-18.5</v>
       </c>
+      <c r="M144">
+        <v>38</v>
+      </c>
+      <c r="N144">
+        <v>5</v>
+      </c>
+      <c r="O144">
+        <v>12</v>
+      </c>
+      <c r="P144">
+        <v>2</v>
+      </c>
+      <c r="Q144">
+        <v>8</v>
+      </c>
+      <c r="R144">
+        <v>4</v>
+      </c>
+      <c r="S144">
+        <v>4</v>
+      </c>
+      <c r="T144">
+        <v>14</v>
+      </c>
       <c r="W144">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="X144">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.3">
@@ -7576,14 +7624,38 @@
         <v>5</v>
       </c>
       <c r="E145">
-        <v>-20.5</v>
+        <v>-21.5</v>
       </c>
       <c r="F145">
         <v>-20.5</v>
       </c>
+      <c r="M145">
+        <v>63</v>
+      </c>
+      <c r="N145">
+        <v>24</v>
+      </c>
+      <c r="O145">
+        <v>15</v>
+      </c>
+      <c r="P145">
+        <v>7</v>
+      </c>
+      <c r="Q145">
+        <v>6</v>
+      </c>
+      <c r="R145">
+        <v>6</v>
+      </c>
+      <c r="S145">
+        <v>7</v>
+      </c>
+      <c r="T145">
+        <v>13</v>
+      </c>
       <c r="W145">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="X145">
         <f t="shared" si="5"/>
@@ -7604,18 +7676,42 @@
         <v>11</v>
       </c>
       <c r="E146">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="F146">
         <v>1.5</v>
       </c>
+      <c r="M146">
+        <v>24</v>
+      </c>
+      <c r="N146">
+        <v>30</v>
+      </c>
+      <c r="O146">
+        <v>13</v>
+      </c>
+      <c r="P146">
+        <v>12</v>
+      </c>
+      <c r="Q146">
+        <v>4</v>
+      </c>
+      <c r="R146">
+        <v>10</v>
+      </c>
+      <c r="S146">
+        <v>9</v>
+      </c>
+      <c r="T146">
+        <v>11</v>
+      </c>
       <c r="W146">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X146">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.3">
@@ -7632,18 +7728,42 @@
         <v>12</v>
       </c>
       <c r="E147">
-        <v>-4.5</v>
+        <v>-3.5</v>
       </c>
       <c r="F147">
         <v>-4.5</v>
       </c>
+      <c r="M147">
+        <v>38</v>
+      </c>
+      <c r="N147">
+        <v>22</v>
+      </c>
+      <c r="O147">
+        <v>13</v>
+      </c>
+      <c r="P147">
+        <v>5</v>
+      </c>
+      <c r="Q147">
+        <v>7</v>
+      </c>
+      <c r="R147">
+        <v>4</v>
+      </c>
+      <c r="S147">
+        <v>12</v>
+      </c>
+      <c r="T147">
+        <v>15</v>
+      </c>
       <c r="W147">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="X147">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.3">
@@ -7660,18 +7780,42 @@
         <v>9</v>
       </c>
       <c r="E148">
-        <v>-5.5</v>
+        <v>-10.5</v>
       </c>
       <c r="F148">
         <v>-5.5</v>
       </c>
+      <c r="M148">
+        <v>7</v>
+      </c>
+      <c r="N148">
+        <v>10</v>
+      </c>
+      <c r="O148">
+        <v>5</v>
+      </c>
+      <c r="P148">
+        <v>4</v>
+      </c>
+      <c r="Q148">
+        <v>4</v>
+      </c>
+      <c r="R148">
+        <v>6</v>
+      </c>
+      <c r="S148">
+        <v>8</v>
+      </c>
+      <c r="T148">
+        <v>14</v>
+      </c>
       <c r="W148">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="X148">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.3">
@@ -7688,18 +7832,42 @@
         <v>13</v>
       </c>
       <c r="E149">
-        <v>-8.5</v>
+        <v>-9.5</v>
       </c>
       <c r="F149">
         <v>-8.5</v>
       </c>
+      <c r="M149">
+        <v>20</v>
+      </c>
+      <c r="N149">
+        <v>19</v>
+      </c>
+      <c r="O149">
+        <v>9</v>
+      </c>
+      <c r="P149">
+        <v>6</v>
+      </c>
+      <c r="Q149">
+        <v>4</v>
+      </c>
+      <c r="R149">
+        <v>5</v>
+      </c>
+      <c r="S149">
+        <v>7</v>
+      </c>
+      <c r="T149">
+        <v>15</v>
+      </c>
       <c r="W149">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="X149">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.3">
@@ -7721,13 +7889,37 @@
       <c r="F150">
         <v>-13.5</v>
       </c>
+      <c r="M150">
+        <v>42</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>9</v>
+      </c>
+      <c r="P150">
+        <v>2</v>
+      </c>
+      <c r="Q150">
+        <v>9</v>
+      </c>
+      <c r="R150">
+        <v>12</v>
+      </c>
+      <c r="S150">
+        <v>8</v>
+      </c>
+      <c r="T150">
+        <v>11</v>
+      </c>
       <c r="W150">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="X150">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.3">
@@ -7735,8 +7927,19 @@
         <v>15</v>
       </c>
       <c r="B151" s="1">
-        <f t="shared" ref="B151:B189" si="6">B150+2</f>
-        <v>45747</v>
+        <v>45765</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151">
+        <v>-3.5</v>
+      </c>
+      <c r="F151">
+        <v>-3.5</v>
       </c>
       <c r="W151">
         <f t="shared" si="4"/>
@@ -7752,8 +7955,19 @@
         <v>15</v>
       </c>
       <c r="B152" s="1">
-        <f t="shared" si="6"/>
-        <v>45749</v>
+        <v>45766</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>-6.5</v>
+      </c>
+      <c r="F152">
+        <v>-6.5</v>
       </c>
       <c r="W152">
         <f t="shared" si="4"/>
@@ -7769,8 +7983,19 @@
         <v>15</v>
       </c>
       <c r="B153" s="1">
-        <f t="shared" si="6"/>
-        <v>45751</v>
+        <v>45766</v>
+      </c>
+      <c r="C153" t="s">
+        <v>0</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153">
+        <v>-18.5</v>
+      </c>
+      <c r="F153">
+        <v>-17.5</v>
       </c>
       <c r="W153">
         <f t="shared" si="4"/>
@@ -7786,8 +8011,13 @@
         <v>15</v>
       </c>
       <c r="B154" s="1">
-        <f t="shared" si="6"/>
-        <v>45753</v>
+        <v>45766</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" t="s">
+        <v>13</v>
       </c>
       <c r="W154">
         <f t="shared" si="4"/>
@@ -7803,8 +8033,19 @@
         <v>15</v>
       </c>
       <c r="B155" s="1">
-        <f t="shared" si="6"/>
-        <v>45755</v>
+        <v>45766</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155">
+        <v>-4.5</v>
+      </c>
+      <c r="F155">
+        <v>-5.5</v>
       </c>
       <c r="W155">
         <f t="shared" si="4"/>
@@ -7820,8 +8061,19 @@
         <v>15</v>
       </c>
       <c r="B156" s="1">
-        <f t="shared" si="6"/>
-        <v>45757</v>
+        <v>45766</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156">
+        <v>5.5</v>
+      </c>
+      <c r="F156">
+        <v>5.5</v>
       </c>
       <c r="W156">
         <f t="shared" si="4"/>
@@ -7837,8 +8089,19 @@
         <v>15</v>
       </c>
       <c r="B157" s="1">
-        <f t="shared" si="6"/>
-        <v>45759</v>
+        <v>45766</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157">
+        <v>11.5</v>
+      </c>
+      <c r="F157">
+        <v>11.5</v>
       </c>
       <c r="W157">
         <f t="shared" si="4"/>
@@ -7854,8 +8117,19 @@
         <v>15</v>
       </c>
       <c r="B158" s="1">
-        <f t="shared" si="6"/>
-        <v>45761</v>
+        <v>45766</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>-18.5</v>
+      </c>
+      <c r="F158">
+        <v>-18.5</v>
       </c>
       <c r="W158">
         <f t="shared" si="4"/>
@@ -7871,8 +8145,8 @@
         <v>16</v>
       </c>
       <c r="B159" s="1">
-        <f t="shared" si="6"/>
-        <v>45763</v>
+        <f t="shared" ref="B159:B189" si="6">B158+2</f>
+        <v>45768</v>
       </c>
       <c r="W159">
         <f t="shared" si="4"/>
@@ -7889,7 +8163,7 @@
       </c>
       <c r="B160" s="1">
         <f t="shared" si="6"/>
-        <v>45765</v>
+        <v>45770</v>
       </c>
       <c r="W160">
         <f t="shared" si="4"/>
@@ -7906,7 +8180,7 @@
       </c>
       <c r="B161" s="1">
         <f t="shared" si="6"/>
-        <v>45767</v>
+        <v>45772</v>
       </c>
       <c r="W161">
         <f t="shared" si="4"/>
@@ -7923,7 +8197,7 @@
       </c>
       <c r="B162" s="1">
         <f t="shared" si="6"/>
-        <v>45769</v>
+        <v>45774</v>
       </c>
       <c r="W162">
         <f t="shared" si="4"/>
@@ -7940,7 +8214,7 @@
       </c>
       <c r="B163" s="1">
         <f t="shared" si="6"/>
-        <v>45771</v>
+        <v>45776</v>
       </c>
       <c r="W163">
         <f t="shared" si="4"/>
@@ -7957,7 +8231,7 @@
       </c>
       <c r="B164" s="1">
         <f t="shared" si="6"/>
-        <v>45773</v>
+        <v>45778</v>
       </c>
       <c r="W164">
         <f t="shared" si="4"/>
@@ -7974,7 +8248,7 @@
       </c>
       <c r="B165" s="1">
         <f t="shared" si="6"/>
-        <v>45775</v>
+        <v>45780</v>
       </c>
       <c r="W165">
         <f t="shared" si="4"/>
@@ -7991,7 +8265,7 @@
       </c>
       <c r="B166" s="1">
         <f t="shared" si="6"/>
-        <v>45777</v>
+        <v>45782</v>
       </c>
       <c r="W166">
         <f t="shared" si="4"/>
@@ -8008,7 +8282,7 @@
       </c>
       <c r="B167" s="1">
         <f t="shared" si="6"/>
-        <v>45779</v>
+        <v>45784</v>
       </c>
       <c r="W167">
         <f t="shared" si="4"/>
@@ -8025,7 +8299,7 @@
       </c>
       <c r="B168" s="1">
         <f t="shared" si="6"/>
-        <v>45781</v>
+        <v>45786</v>
       </c>
       <c r="W168">
         <f t="shared" si="4"/>
@@ -8042,7 +8316,7 @@
       </c>
       <c r="B169" s="1">
         <f t="shared" si="6"/>
-        <v>45783</v>
+        <v>45788</v>
       </c>
       <c r="W169">
         <f t="shared" si="4"/>
@@ -8059,7 +8333,7 @@
       </c>
       <c r="B170" s="1">
         <f t="shared" si="6"/>
-        <v>45785</v>
+        <v>45790</v>
       </c>
       <c r="W170">
         <f t="shared" si="4"/>
@@ -8076,7 +8350,7 @@
       </c>
       <c r="B171" s="1">
         <f t="shared" si="6"/>
-        <v>45787</v>
+        <v>45792</v>
       </c>
       <c r="W171">
         <f t="shared" si="4"/>
@@ -8093,7 +8367,7 @@
       </c>
       <c r="B172" s="1">
         <f t="shared" si="6"/>
-        <v>45789</v>
+        <v>45794</v>
       </c>
       <c r="W172">
         <f t="shared" si="4"/>
@@ -8110,7 +8384,7 @@
       </c>
       <c r="B173" s="1">
         <f t="shared" si="6"/>
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="W173">
         <f t="shared" si="4"/>
@@ -8127,7 +8401,7 @@
       </c>
       <c r="B174" s="1">
         <f t="shared" si="6"/>
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="W174">
         <f t="shared" si="4"/>
@@ -8144,7 +8418,7 @@
       </c>
       <c r="B175" s="1">
         <f t="shared" si="6"/>
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="W175">
         <f t="shared" si="4"/>
@@ -8161,7 +8435,7 @@
       </c>
       <c r="B176" s="1">
         <f t="shared" si="6"/>
-        <v>45797</v>
+        <v>45802</v>
       </c>
       <c r="W176">
         <f t="shared" si="4"/>
@@ -8178,7 +8452,7 @@
       </c>
       <c r="B177" s="1">
         <f t="shared" si="6"/>
-        <v>45799</v>
+        <v>45804</v>
       </c>
       <c r="W177">
         <f t="shared" si="4"/>
@@ -8195,7 +8469,7 @@
       </c>
       <c r="B178" s="1">
         <f t="shared" si="6"/>
-        <v>45801</v>
+        <v>45806</v>
       </c>
       <c r="W178">
         <f t="shared" si="4"/>
@@ -8212,7 +8486,7 @@
       </c>
       <c r="B179" s="1">
         <f t="shared" si="6"/>
-        <v>45803</v>
+        <v>45808</v>
       </c>
       <c r="W179">
         <f t="shared" si="4"/>
@@ -8229,7 +8503,7 @@
       </c>
       <c r="B180" s="1">
         <f t="shared" si="6"/>
-        <v>45805</v>
+        <v>45810</v>
       </c>
       <c r="W180">
         <f t="shared" si="4"/>
@@ -8246,7 +8520,7 @@
       </c>
       <c r="B181" s="1">
         <f t="shared" si="6"/>
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="W181">
         <f t="shared" si="4"/>
@@ -8263,7 +8537,7 @@
       </c>
       <c r="B182" s="1">
         <f t="shared" si="6"/>
-        <v>45809</v>
+        <v>45814</v>
       </c>
       <c r="W182">
         <f t="shared" si="4"/>
@@ -8280,7 +8554,7 @@
       </c>
       <c r="B183" s="1">
         <f t="shared" si="6"/>
-        <v>45811</v>
+        <v>45816</v>
       </c>
       <c r="W183">
         <f t="shared" si="4"/>
@@ -8297,7 +8571,7 @@
       </c>
       <c r="B184" s="1">
         <f t="shared" si="6"/>
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="W184">
         <f t="shared" si="4"/>
@@ -8314,7 +8588,7 @@
       </c>
       <c r="B185" s="1">
         <f t="shared" si="6"/>
-        <v>45815</v>
+        <v>45820</v>
       </c>
       <c r="W185">
         <f t="shared" si="4"/>
@@ -8331,7 +8605,7 @@
       </c>
       <c r="B186" s="1">
         <f t="shared" si="6"/>
-        <v>45817</v>
+        <v>45822</v>
       </c>
       <c r="W186">
         <f t="shared" si="4"/>
@@ -8348,7 +8622,7 @@
       </c>
       <c r="B187" s="1">
         <f t="shared" si="6"/>
-        <v>45819</v>
+        <v>45824</v>
       </c>
       <c r="W187">
         <f t="shared" si="4"/>
@@ -8365,7 +8639,7 @@
       </c>
       <c r="B188" s="1">
         <f t="shared" si="6"/>
-        <v>45821</v>
+        <v>45826</v>
       </c>
       <c r="W188">
         <f t="shared" si="4"/>
@@ -8382,7 +8656,7 @@
       </c>
       <c r="B189" s="1">
         <f t="shared" si="6"/>
-        <v>45823</v>
+        <v>45828</v>
       </c>
       <c r="W189">
         <f t="shared" si="4"/>

--- a/rugby_results_urc_2024_2025.xlsx
+++ b/rugby_results_urc_2024_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\rugby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7328E6FC-E25F-47DF-9D22-198A8D24C8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61995899-0ACA-4B1A-9D5A-B446A12E729F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F91CF1C2-8A5F-42AD-9533-1E11BD16044D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="77">
   <si>
     <t>Stormers</t>
   </si>
@@ -611,10 +611,10 @@
   <dimension ref="A1:AA233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E133" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E156" sqref="E156"/>
+      <selection pane="bottomRight" activeCell="M158" sqref="M158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7936,18 +7936,42 @@
         <v>10</v>
       </c>
       <c r="E151">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="F151">
         <v>-3.5</v>
       </c>
+      <c r="M151">
+        <v>17</v>
+      </c>
+      <c r="N151">
+        <v>18</v>
+      </c>
+      <c r="O151">
+        <v>11</v>
+      </c>
+      <c r="P151">
+        <v>4</v>
+      </c>
+      <c r="Q151">
+        <v>5</v>
+      </c>
+      <c r="R151">
+        <v>4</v>
+      </c>
+      <c r="S151">
+        <v>10</v>
+      </c>
+      <c r="T151">
+        <v>9</v>
+      </c>
       <c r="W151">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X151">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.3">
@@ -7964,18 +7988,42 @@
         <v>1</v>
       </c>
       <c r="E152">
-        <v>-6.5</v>
+        <v>-5.5</v>
       </c>
       <c r="F152">
         <v>-6.5</v>
       </c>
+      <c r="M152">
+        <v>31</v>
+      </c>
+      <c r="N152">
+        <v>42</v>
+      </c>
+      <c r="O152">
+        <v>6</v>
+      </c>
+      <c r="P152">
+        <v>9</v>
+      </c>
+      <c r="Q152">
+        <v>6</v>
+      </c>
+      <c r="R152">
+        <v>8</v>
+      </c>
+      <c r="S152">
+        <v>10</v>
+      </c>
+      <c r="T152">
+        <v>10</v>
+      </c>
       <c r="W152">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X152">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.3">
@@ -7992,18 +8040,42 @@
         <v>15</v>
       </c>
       <c r="E153">
-        <v>-18.5</v>
+        <v>-15.5</v>
       </c>
       <c r="F153">
         <v>-17.5</v>
       </c>
+      <c r="M153">
+        <v>34</v>
+      </c>
+      <c r="N153">
+        <v>29</v>
+      </c>
+      <c r="O153">
+        <v>12</v>
+      </c>
+      <c r="P153">
+        <v>11</v>
+      </c>
+      <c r="Q153">
+        <v>3</v>
+      </c>
+      <c r="R153">
+        <v>7</v>
+      </c>
+      <c r="S153">
+        <v>11</v>
+      </c>
+      <c r="T153">
+        <v>12</v>
+      </c>
       <c r="W153">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.3">
@@ -8019,13 +8091,43 @@
       <c r="D154" t="s">
         <v>13</v>
       </c>
+      <c r="E154">
+        <v>-1.5</v>
+      </c>
+      <c r="F154">
+        <v>-1.5</v>
+      </c>
+      <c r="M154">
+        <v>19</v>
+      </c>
+      <c r="N154">
+        <v>36</v>
+      </c>
+      <c r="O154">
+        <v>10</v>
+      </c>
+      <c r="P154">
+        <v>12</v>
+      </c>
+      <c r="Q154">
+        <v>5</v>
+      </c>
+      <c r="R154">
+        <v>9</v>
+      </c>
+      <c r="S154">
+        <v>12</v>
+      </c>
+      <c r="T154">
+        <v>17</v>
+      </c>
       <c r="W154">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="X154">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.3">
@@ -8042,18 +8144,42 @@
         <v>8</v>
       </c>
       <c r="E155">
-        <v>-4.5</v>
+        <v>-5.5</v>
       </c>
       <c r="F155">
         <v>-5.5</v>
       </c>
+      <c r="M155">
+        <v>13</v>
+      </c>
+      <c r="N155">
+        <v>16</v>
+      </c>
+      <c r="O155">
+        <v>6</v>
+      </c>
+      <c r="P155">
+        <v>1</v>
+      </c>
+      <c r="Q155">
+        <v>7</v>
+      </c>
+      <c r="R155">
+        <v>8</v>
+      </c>
+      <c r="S155">
+        <v>7</v>
+      </c>
+      <c r="T155">
+        <v>13</v>
+      </c>
       <c r="W155">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="X155">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.3">
@@ -8070,18 +8196,42 @@
         <v>7</v>
       </c>
       <c r="E156">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="F156">
         <v>5.5</v>
       </c>
+      <c r="M156">
+        <v>23</v>
+      </c>
+      <c r="N156">
+        <v>31</v>
+      </c>
+      <c r="O156">
+        <v>6</v>
+      </c>
+      <c r="P156">
+        <v>12</v>
+      </c>
+      <c r="Q156">
+        <v>10</v>
+      </c>
+      <c r="R156">
+        <v>7</v>
+      </c>
+      <c r="S156">
+        <v>15</v>
+      </c>
+      <c r="T156">
+        <v>9</v>
+      </c>
       <c r="W156">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X156">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.3">
@@ -8103,13 +8253,37 @@
       <c r="F157">
         <v>11.5</v>
       </c>
+      <c r="M157">
+        <v>6</v>
+      </c>
+      <c r="N157">
+        <v>14</v>
+      </c>
+      <c r="O157">
+        <v>5</v>
+      </c>
+      <c r="P157">
+        <v>7</v>
+      </c>
+      <c r="Q157">
+        <v>15</v>
+      </c>
+      <c r="R157">
+        <v>11</v>
+      </c>
+      <c r="S157">
+        <v>14</v>
+      </c>
+      <c r="T157">
+        <v>14</v>
+      </c>
       <c r="W157">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X157">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.3">
@@ -8126,18 +8300,42 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>-18.5</v>
+        <v>-17.5</v>
       </c>
       <c r="F158">
         <v>-18.5</v>
       </c>
+      <c r="M158">
+        <v>41</v>
+      </c>
+      <c r="N158">
+        <v>17</v>
+      </c>
+      <c r="O158">
+        <v>12</v>
+      </c>
+      <c r="P158">
+        <v>9</v>
+      </c>
+      <c r="Q158">
+        <v>6</v>
+      </c>
+      <c r="R158">
+        <v>4</v>
+      </c>
+      <c r="S158">
+        <v>7</v>
+      </c>
+      <c r="T158">
+        <v>6</v>
+      </c>
       <c r="W158">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X158">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.3">
@@ -8145,8 +8343,19 @@
         <v>16</v>
       </c>
       <c r="B159" s="1">
-        <f t="shared" ref="B159:B189" si="6">B158+2</f>
-        <v>45768</v>
+        <v>45772</v>
+      </c>
+      <c r="C159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159">
+        <v>5.5</v>
+      </c>
+      <c r="F159">
+        <v>5.5</v>
       </c>
       <c r="W159">
         <f t="shared" si="4"/>
@@ -8162,8 +8371,19 @@
         <v>16</v>
       </c>
       <c r="B160" s="1">
-        <f t="shared" si="6"/>
-        <v>45770</v>
+        <v>45772</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160">
+        <v>-3.5</v>
+      </c>
+      <c r="F160">
+        <v>-3.5</v>
       </c>
       <c r="W160">
         <f t="shared" si="4"/>
@@ -8179,8 +8399,19 @@
         <v>16</v>
       </c>
       <c r="B161" s="1">
-        <f t="shared" si="6"/>
         <v>45772</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161">
+        <v>3.5</v>
+      </c>
+      <c r="F161">
+        <v>3.5</v>
       </c>
       <c r="W161">
         <f t="shared" si="4"/>
@@ -8196,8 +8427,19 @@
         <v>16</v>
       </c>
       <c r="B162" s="1">
-        <f t="shared" si="6"/>
-        <v>45774</v>
+        <v>45773</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162">
+        <v>-6.5</v>
+      </c>
+      <c r="F162">
+        <v>-6.5</v>
       </c>
       <c r="W162">
         <f t="shared" si="4"/>
@@ -8213,8 +8455,19 @@
         <v>16</v>
       </c>
       <c r="B163" s="1">
-        <f t="shared" si="6"/>
-        <v>45776</v>
+        <v>45773</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163">
+        <v>-13.5</v>
+      </c>
+      <c r="F163">
+        <v>-13.5</v>
       </c>
       <c r="W163">
         <f t="shared" si="4"/>
@@ -8230,8 +8483,19 @@
         <v>16</v>
       </c>
       <c r="B164" s="1">
-        <f t="shared" si="6"/>
-        <v>45778</v>
+        <v>45773</v>
+      </c>
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164">
+        <v>9.5</v>
+      </c>
+      <c r="F164">
+        <v>9.5</v>
       </c>
       <c r="W164">
         <f t="shared" si="4"/>
@@ -8247,8 +8511,19 @@
         <v>16</v>
       </c>
       <c r="B165" s="1">
-        <f t="shared" si="6"/>
-        <v>45780</v>
+        <v>45773</v>
+      </c>
+      <c r="C165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>-10.5</v>
+      </c>
+      <c r="F165">
+        <v>-10.5</v>
       </c>
       <c r="W165">
         <f t="shared" si="4"/>
@@ -8264,8 +8539,19 @@
         <v>16</v>
       </c>
       <c r="B166" s="1">
-        <f t="shared" si="6"/>
-        <v>45782</v>
+        <v>45773</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166">
+        <v>3.5</v>
+      </c>
+      <c r="F166">
+        <v>3.5</v>
       </c>
       <c r="W166">
         <f t="shared" si="4"/>
@@ -8281,8 +8567,8 @@
         <v>17</v>
       </c>
       <c r="B167" s="1">
-        <f t="shared" si="6"/>
-        <v>45784</v>
+        <f t="shared" ref="B159:B189" si="6">B166+2</f>
+        <v>45775</v>
       </c>
       <c r="W167">
         <f t="shared" si="4"/>
@@ -8299,7 +8585,7 @@
       </c>
       <c r="B168" s="1">
         <f t="shared" si="6"/>
-        <v>45786</v>
+        <v>45777</v>
       </c>
       <c r="W168">
         <f t="shared" si="4"/>
@@ -8316,7 +8602,7 @@
       </c>
       <c r="B169" s="1">
         <f t="shared" si="6"/>
-        <v>45788</v>
+        <v>45779</v>
       </c>
       <c r="W169">
         <f t="shared" si="4"/>
@@ -8333,7 +8619,7 @@
       </c>
       <c r="B170" s="1">
         <f t="shared" si="6"/>
-        <v>45790</v>
+        <v>45781</v>
       </c>
       <c r="W170">
         <f t="shared" si="4"/>
@@ -8350,7 +8636,7 @@
       </c>
       <c r="B171" s="1">
         <f t="shared" si="6"/>
-        <v>45792</v>
+        <v>45783</v>
       </c>
       <c r="W171">
         <f t="shared" si="4"/>
@@ -8367,7 +8653,7 @@
       </c>
       <c r="B172" s="1">
         <f t="shared" si="6"/>
-        <v>45794</v>
+        <v>45785</v>
       </c>
       <c r="W172">
         <f t="shared" si="4"/>
@@ -8384,7 +8670,7 @@
       </c>
       <c r="B173" s="1">
         <f t="shared" si="6"/>
-        <v>45796</v>
+        <v>45787</v>
       </c>
       <c r="W173">
         <f t="shared" si="4"/>
@@ -8401,7 +8687,7 @@
       </c>
       <c r="B174" s="1">
         <f t="shared" si="6"/>
-        <v>45798</v>
+        <v>45789</v>
       </c>
       <c r="W174">
         <f t="shared" si="4"/>
@@ -8418,7 +8704,7 @@
       </c>
       <c r="B175" s="1">
         <f t="shared" si="6"/>
-        <v>45800</v>
+        <v>45791</v>
       </c>
       <c r="W175">
         <f t="shared" si="4"/>
@@ -8435,7 +8721,7 @@
       </c>
       <c r="B176" s="1">
         <f t="shared" si="6"/>
-        <v>45802</v>
+        <v>45793</v>
       </c>
       <c r="W176">
         <f t="shared" si="4"/>
@@ -8452,7 +8738,7 @@
       </c>
       <c r="B177" s="1">
         <f t="shared" si="6"/>
-        <v>45804</v>
+        <v>45795</v>
       </c>
       <c r="W177">
         <f t="shared" si="4"/>
@@ -8469,7 +8755,7 @@
       </c>
       <c r="B178" s="1">
         <f t="shared" si="6"/>
-        <v>45806</v>
+        <v>45797</v>
       </c>
       <c r="W178">
         <f t="shared" si="4"/>
@@ -8486,7 +8772,7 @@
       </c>
       <c r="B179" s="1">
         <f t="shared" si="6"/>
-        <v>45808</v>
+        <v>45799</v>
       </c>
       <c r="W179">
         <f t="shared" si="4"/>
@@ -8503,7 +8789,7 @@
       </c>
       <c r="B180" s="1">
         <f t="shared" si="6"/>
-        <v>45810</v>
+        <v>45801</v>
       </c>
       <c r="W180">
         <f t="shared" si="4"/>
@@ -8520,7 +8806,7 @@
       </c>
       <c r="B181" s="1">
         <f t="shared" si="6"/>
-        <v>45812</v>
+        <v>45803</v>
       </c>
       <c r="W181">
         <f t="shared" si="4"/>
@@ -8537,7 +8823,7 @@
       </c>
       <c r="B182" s="1">
         <f t="shared" si="6"/>
-        <v>45814</v>
+        <v>45805</v>
       </c>
       <c r="W182">
         <f t="shared" si="4"/>
@@ -8554,7 +8840,7 @@
       </c>
       <c r="B183" s="1">
         <f t="shared" si="6"/>
-        <v>45816</v>
+        <v>45807</v>
       </c>
       <c r="W183">
         <f t="shared" si="4"/>
@@ -8571,7 +8857,7 @@
       </c>
       <c r="B184" s="1">
         <f t="shared" si="6"/>
-        <v>45818</v>
+        <v>45809</v>
       </c>
       <c r="W184">
         <f t="shared" si="4"/>
@@ -8588,7 +8874,7 @@
       </c>
       <c r="B185" s="1">
         <f t="shared" si="6"/>
-        <v>45820</v>
+        <v>45811</v>
       </c>
       <c r="W185">
         <f t="shared" si="4"/>
@@ -8605,7 +8891,7 @@
       </c>
       <c r="B186" s="1">
         <f t="shared" si="6"/>
-        <v>45822</v>
+        <v>45813</v>
       </c>
       <c r="W186">
         <f t="shared" si="4"/>
@@ -8622,7 +8908,7 @@
       </c>
       <c r="B187" s="1">
         <f t="shared" si="6"/>
-        <v>45824</v>
+        <v>45815</v>
       </c>
       <c r="W187">
         <f t="shared" si="4"/>
@@ -8639,7 +8925,7 @@
       </c>
       <c r="B188" s="1">
         <f t="shared" si="6"/>
-        <v>45826</v>
+        <v>45817</v>
       </c>
       <c r="W188">
         <f t="shared" si="4"/>
@@ -8656,7 +8942,7 @@
       </c>
       <c r="B189" s="1">
         <f t="shared" si="6"/>
-        <v>45828</v>
+        <v>45819</v>
       </c>
       <c r="W189">
         <f t="shared" si="4"/>

--- a/rugby_results_urc_2024_2025.xlsx
+++ b/rugby_results_urc_2024_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\rugby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61995899-0ACA-4B1A-9D5A-B446A12E729F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FA1475-0D82-4A0D-B855-CF816D3C7EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F91CF1C2-8A5F-42AD-9533-1E11BD16044D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="77">
   <si>
     <t>Stormers</t>
   </si>
@@ -611,10 +611,10 @@
   <dimension ref="A1:AA233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M158" sqref="M158"/>
+      <selection pane="bottomRight" activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8352,18 +8352,42 @@
         <v>11</v>
       </c>
       <c r="E159">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F159">
         <v>5.5</v>
       </c>
+      <c r="M159">
+        <v>26</v>
+      </c>
+      <c r="N159">
+        <v>21</v>
+      </c>
+      <c r="O159">
+        <v>12</v>
+      </c>
+      <c r="P159">
+        <v>6</v>
+      </c>
+      <c r="Q159">
+        <v>6</v>
+      </c>
+      <c r="R159">
+        <v>7</v>
+      </c>
+      <c r="S159">
+        <v>6</v>
+      </c>
+      <c r="T159">
+        <v>11</v>
+      </c>
       <c r="W159">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="X159">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.3">
@@ -8380,18 +8404,42 @@
         <v>8</v>
       </c>
       <c r="E160">
-        <v>-3.5</v>
+        <v>-2.5</v>
       </c>
       <c r="F160">
         <v>-3.5</v>
       </c>
+      <c r="M160">
+        <v>19</v>
+      </c>
+      <c r="N160">
+        <v>26</v>
+      </c>
+      <c r="O160">
+        <v>10</v>
+      </c>
+      <c r="P160">
+        <v>7</v>
+      </c>
+      <c r="Q160">
+        <v>5</v>
+      </c>
+      <c r="R160">
+        <v>7</v>
+      </c>
+      <c r="S160">
+        <v>11</v>
+      </c>
+      <c r="T160">
+        <v>11</v>
+      </c>
       <c r="W160">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X160">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.3">
@@ -8413,13 +8461,37 @@
       <c r="F161">
         <v>3.5</v>
       </c>
+      <c r="M161">
+        <v>25</v>
+      </c>
+      <c r="N161">
+        <v>25</v>
+      </c>
+      <c r="O161">
+        <v>5</v>
+      </c>
+      <c r="P161">
+        <v>6</v>
+      </c>
+      <c r="Q161">
+        <v>3</v>
+      </c>
+      <c r="R161">
+        <v>5</v>
+      </c>
+      <c r="S161">
+        <v>10</v>
+      </c>
+      <c r="T161">
+        <v>8</v>
+      </c>
       <c r="W161">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X161">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.3">
@@ -8441,13 +8513,37 @@
       <c r="F162">
         <v>-6.5</v>
       </c>
+      <c r="M162">
+        <v>26</v>
+      </c>
+      <c r="N162">
+        <v>7</v>
+      </c>
+      <c r="O162">
+        <v>12</v>
+      </c>
+      <c r="P162">
+        <v>2</v>
+      </c>
+      <c r="Q162">
+        <v>9</v>
+      </c>
+      <c r="R162">
+        <v>10</v>
+      </c>
+      <c r="S162">
+        <v>8</v>
+      </c>
+      <c r="T162">
+        <v>11</v>
+      </c>
       <c r="W162">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="X162">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.3">
@@ -8469,13 +8565,37 @@
       <c r="F163">
         <v>-13.5</v>
       </c>
+      <c r="M163">
+        <v>57</v>
+      </c>
+      <c r="N163">
+        <v>24</v>
+      </c>
+      <c r="O163">
+        <v>15</v>
+      </c>
+      <c r="P163">
+        <v>3</v>
+      </c>
+      <c r="Q163">
+        <v>5</v>
+      </c>
+      <c r="R163">
+        <v>7</v>
+      </c>
+      <c r="S163">
+        <v>14</v>
+      </c>
+      <c r="T163">
+        <v>10</v>
+      </c>
       <c r="W163">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X163">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.3">
@@ -8497,13 +8617,37 @@
       <c r="F164">
         <v>9.5</v>
       </c>
+      <c r="M164">
+        <v>35</v>
+      </c>
+      <c r="N164">
+        <v>22</v>
+      </c>
+      <c r="O164">
+        <v>12</v>
+      </c>
+      <c r="P164">
+        <v>6</v>
+      </c>
+      <c r="Q164">
+        <v>5</v>
+      </c>
+      <c r="R164">
+        <v>10</v>
+      </c>
+      <c r="S164">
+        <v>12</v>
+      </c>
+      <c r="T164">
+        <v>11</v>
+      </c>
       <c r="W164">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X164">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.3">
@@ -8525,13 +8669,37 @@
       <c r="F165">
         <v>-10.5</v>
       </c>
+      <c r="M165">
+        <v>56</v>
+      </c>
+      <c r="N165">
+        <v>5</v>
+      </c>
+      <c r="O165">
+        <v>12</v>
+      </c>
+      <c r="P165">
+        <v>7</v>
+      </c>
+      <c r="Q165">
+        <v>10</v>
+      </c>
+      <c r="R165">
+        <v>1</v>
+      </c>
+      <c r="S165">
+        <v>5</v>
+      </c>
+      <c r="T165">
+        <v>12</v>
+      </c>
       <c r="W165">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="X165">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.3">
@@ -8548,14 +8716,38 @@
         <v>10</v>
       </c>
       <c r="E166">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F166">
         <v>3.5</v>
       </c>
+      <c r="M166">
+        <v>19</v>
+      </c>
+      <c r="N166">
+        <v>22</v>
+      </c>
+      <c r="O166">
+        <v>8</v>
+      </c>
+      <c r="P166">
+        <v>8</v>
+      </c>
+      <c r="Q166">
+        <v>7</v>
+      </c>
+      <c r="R166">
+        <v>7</v>
+      </c>
+      <c r="S166">
+        <v>6</v>
+      </c>
+      <c r="T166">
+        <v>2</v>
+      </c>
       <c r="W166">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X166">
         <f t="shared" si="5"/>
@@ -8567,8 +8759,13 @@
         <v>17</v>
       </c>
       <c r="B167" s="1">
-        <f t="shared" ref="B159:B189" si="6">B166+2</f>
-        <v>45775</v>
+        <v>45786</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
       </c>
       <c r="W167">
         <f t="shared" si="4"/>
@@ -8584,8 +8781,13 @@
         <v>17</v>
       </c>
       <c r="B168" s="1">
-        <f t="shared" si="6"/>
-        <v>45777</v>
+        <v>45786</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2</v>
       </c>
       <c r="W168">
         <f t="shared" si="4"/>
@@ -8601,8 +8803,13 @@
         <v>17</v>
       </c>
       <c r="B169" s="1">
-        <f t="shared" si="6"/>
-        <v>45779</v>
+        <v>45787</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
       </c>
       <c r="W169">
         <f t="shared" si="4"/>
@@ -8618,8 +8825,13 @@
         <v>17</v>
       </c>
       <c r="B170" s="1">
-        <f t="shared" si="6"/>
-        <v>45781</v>
+        <v>45787</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
       </c>
       <c r="W170">
         <f t="shared" si="4"/>
@@ -8635,8 +8847,13 @@
         <v>17</v>
       </c>
       <c r="B171" s="1">
-        <f t="shared" si="6"/>
-        <v>45783</v>
+        <v>45787</v>
+      </c>
+      <c r="C171" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
       </c>
       <c r="W171">
         <f t="shared" si="4"/>
@@ -8652,8 +8869,13 @@
         <v>17</v>
       </c>
       <c r="B172" s="1">
-        <f t="shared" si="6"/>
-        <v>45785</v>
+        <v>45787</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>5</v>
       </c>
       <c r="W172">
         <f t="shared" si="4"/>
@@ -8669,8 +8891,13 @@
         <v>17</v>
       </c>
       <c r="B173" s="1">
-        <f t="shared" si="6"/>
         <v>45787</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3</v>
       </c>
       <c r="W173">
         <f t="shared" si="4"/>
@@ -8686,8 +8913,13 @@
         <v>17</v>
       </c>
       <c r="B174" s="1">
-        <f t="shared" si="6"/>
-        <v>45789</v>
+        <v>45788</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
       </c>
       <c r="W174">
         <f t="shared" si="4"/>
@@ -8703,8 +8935,8 @@
         <v>18</v>
       </c>
       <c r="B175" s="1">
-        <f t="shared" si="6"/>
-        <v>45791</v>
+        <f t="shared" ref="B167:B189" si="6">B174+2</f>
+        <v>45790</v>
       </c>
       <c r="W175">
         <f t="shared" si="4"/>
@@ -8721,7 +8953,7 @@
       </c>
       <c r="B176" s="1">
         <f t="shared" si="6"/>
-        <v>45793</v>
+        <v>45792</v>
       </c>
       <c r="W176">
         <f t="shared" si="4"/>
@@ -8738,7 +8970,7 @@
       </c>
       <c r="B177" s="1">
         <f t="shared" si="6"/>
-        <v>45795</v>
+        <v>45794</v>
       </c>
       <c r="W177">
         <f t="shared" si="4"/>
@@ -8755,7 +8987,7 @@
       </c>
       <c r="B178" s="1">
         <f t="shared" si="6"/>
-        <v>45797</v>
+        <v>45796</v>
       </c>
       <c r="W178">
         <f t="shared" si="4"/>
@@ -8772,7 +9004,7 @@
       </c>
       <c r="B179" s="1">
         <f t="shared" si="6"/>
-        <v>45799</v>
+        <v>45798</v>
       </c>
       <c r="W179">
         <f t="shared" si="4"/>
@@ -8789,7 +9021,7 @@
       </c>
       <c r="B180" s="1">
         <f t="shared" si="6"/>
-        <v>45801</v>
+        <v>45800</v>
       </c>
       <c r="W180">
         <f t="shared" si="4"/>
@@ -8806,7 +9038,7 @@
       </c>
       <c r="B181" s="1">
         <f t="shared" si="6"/>
-        <v>45803</v>
+        <v>45802</v>
       </c>
       <c r="W181">
         <f t="shared" si="4"/>
@@ -8823,7 +9055,7 @@
       </c>
       <c r="B182" s="1">
         <f t="shared" si="6"/>
-        <v>45805</v>
+        <v>45804</v>
       </c>
       <c r="W182">
         <f t="shared" si="4"/>
@@ -8840,7 +9072,7 @@
       </c>
       <c r="B183" s="1">
         <f t="shared" si="6"/>
-        <v>45807</v>
+        <v>45806</v>
       </c>
       <c r="W183">
         <f t="shared" si="4"/>
@@ -8857,7 +9089,7 @@
       </c>
       <c r="B184" s="1">
         <f t="shared" si="6"/>
-        <v>45809</v>
+        <v>45808</v>
       </c>
       <c r="W184">
         <f t="shared" si="4"/>
@@ -8874,7 +9106,7 @@
       </c>
       <c r="B185" s="1">
         <f t="shared" si="6"/>
-        <v>45811</v>
+        <v>45810</v>
       </c>
       <c r="W185">
         <f t="shared" si="4"/>
@@ -8891,7 +9123,7 @@
       </c>
       <c r="B186" s="1">
         <f t="shared" si="6"/>
-        <v>45813</v>
+        <v>45812</v>
       </c>
       <c r="W186">
         <f t="shared" si="4"/>
@@ -8908,7 +9140,7 @@
       </c>
       <c r="B187" s="1">
         <f t="shared" si="6"/>
-        <v>45815</v>
+        <v>45814</v>
       </c>
       <c r="W187">
         <f t="shared" si="4"/>
@@ -8925,7 +9157,7 @@
       </c>
       <c r="B188" s="1">
         <f t="shared" si="6"/>
-        <v>45817</v>
+        <v>45816</v>
       </c>
       <c r="W188">
         <f t="shared" si="4"/>
@@ -8942,7 +9174,7 @@
       </c>
       <c r="B189" s="1">
         <f t="shared" si="6"/>
-        <v>45819</v>
+        <v>45818</v>
       </c>
       <c r="W189">
         <f t="shared" si="4"/>

--- a/rugby_results_urc_2024_2025.xlsx
+++ b/rugby_results_urc_2024_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\rugby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FA1475-0D82-4A0D-B855-CF816D3C7EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33454EB4-5237-42CF-8067-FCA70E386E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F91CF1C2-8A5F-42AD-9533-1E11BD16044D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="77">
   <si>
     <t>Stormers</t>
   </si>
@@ -608,13 +608,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC0A36C-4A19-4E44-9FC9-6681C3DBEBC6}">
-  <dimension ref="A1:AA233"/>
+  <dimension ref="A1:AA229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E167" sqref="E167"/>
+      <selection pane="bottomRight" activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6718,11 +6718,11 @@
         <v>12</v>
       </c>
       <c r="W127">
-        <f t="shared" ref="W127:W190" si="4">S127-T127</f>
+        <f t="shared" ref="W127:W186" si="4">S127-T127</f>
         <v>-3</v>
       </c>
       <c r="X127">
-        <f t="shared" ref="X127:X190" si="5">R127-Q127</f>
+        <f t="shared" ref="X127:X186" si="5">R127-Q127</f>
         <v>-2</v>
       </c>
     </row>
@@ -8767,13 +8767,43 @@
       <c r="D167" t="s">
         <v>12</v>
       </c>
+      <c r="E167">
+        <v>-16.5</v>
+      </c>
+      <c r="F167">
+        <v>-16.5</v>
+      </c>
+      <c r="M167">
+        <v>29</v>
+      </c>
+      <c r="N167">
+        <v>10</v>
+      </c>
+      <c r="O167">
+        <v>6</v>
+      </c>
+      <c r="P167">
+        <v>7</v>
+      </c>
+      <c r="Q167">
+        <v>9</v>
+      </c>
+      <c r="R167">
+        <v>7</v>
+      </c>
+      <c r="S167">
+        <v>7</v>
+      </c>
+      <c r="T167">
+        <v>12</v>
+      </c>
       <c r="W167">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="X167">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.3">
@@ -8789,13 +8819,43 @@
       <c r="D168" t="s">
         <v>2</v>
       </c>
+      <c r="E168">
+        <v>-7.5</v>
+      </c>
+      <c r="F168">
+        <v>-7.5</v>
+      </c>
+      <c r="M168">
+        <v>38</v>
+      </c>
+      <c r="N168">
+        <v>20</v>
+      </c>
+      <c r="O168">
+        <v>13</v>
+      </c>
+      <c r="P168">
+        <v>2</v>
+      </c>
+      <c r="Q168">
+        <v>10</v>
+      </c>
+      <c r="R168">
+        <v>3</v>
+      </c>
+      <c r="S168">
+        <v>9</v>
+      </c>
+      <c r="T168">
+        <v>11</v>
+      </c>
       <c r="W168">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X168">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.3">
@@ -8811,9 +8871,39 @@
       <c r="D169" t="s">
         <v>13</v>
       </c>
+      <c r="E169">
+        <v>-19.5</v>
+      </c>
+      <c r="F169">
+        <v>-19.5</v>
+      </c>
+      <c r="M169">
+        <v>45</v>
+      </c>
+      <c r="N169">
+        <v>21</v>
+      </c>
+      <c r="O169">
+        <v>10</v>
+      </c>
+      <c r="P169">
+        <v>5</v>
+      </c>
+      <c r="Q169">
+        <v>5</v>
+      </c>
+      <c r="R169">
+        <v>5</v>
+      </c>
+      <c r="S169">
+        <v>7</v>
+      </c>
+      <c r="T169">
+        <v>6</v>
+      </c>
       <c r="W169">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X169">
         <f t="shared" si="5"/>
@@ -8833,13 +8923,43 @@
       <c r="D170" t="s">
         <v>14</v>
       </c>
+      <c r="E170">
+        <v>2.5</v>
+      </c>
+      <c r="F170">
+        <v>2.5</v>
+      </c>
+      <c r="M170">
+        <v>33</v>
+      </c>
+      <c r="N170">
+        <v>7</v>
+      </c>
+      <c r="O170">
+        <v>10</v>
+      </c>
+      <c r="P170">
+        <v>7</v>
+      </c>
+      <c r="Q170">
+        <v>5</v>
+      </c>
+      <c r="R170">
+        <v>2</v>
+      </c>
+      <c r="S170">
+        <v>14</v>
+      </c>
+      <c r="T170">
+        <v>8</v>
+      </c>
       <c r="W170">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X170">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.3">
@@ -8855,13 +8975,43 @@
       <c r="D171" t="s">
         <v>6</v>
       </c>
+      <c r="E171">
+        <v>-33.5</v>
+      </c>
+      <c r="F171">
+        <v>-33.5</v>
+      </c>
+      <c r="M171">
+        <v>48</v>
+      </c>
+      <c r="N171">
+        <v>12</v>
+      </c>
+      <c r="O171">
+        <v>19</v>
+      </c>
+      <c r="P171">
+        <v>4</v>
+      </c>
+      <c r="Q171">
+        <v>5</v>
+      </c>
+      <c r="R171">
+        <v>3</v>
+      </c>
+      <c r="S171">
+        <v>3</v>
+      </c>
+      <c r="T171">
+        <v>9</v>
+      </c>
       <c r="W171">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="X171">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.3">
@@ -8877,13 +9027,43 @@
       <c r="D172" t="s">
         <v>5</v>
       </c>
+      <c r="E172">
+        <v>-33.5</v>
+      </c>
+      <c r="F172">
+        <v>-33.5</v>
+      </c>
+      <c r="M172">
+        <v>76</v>
+      </c>
+      <c r="N172">
+        <v>5</v>
+      </c>
+      <c r="O172">
+        <v>20</v>
+      </c>
+      <c r="P172">
+        <v>11</v>
+      </c>
+      <c r="Q172">
+        <v>8</v>
+      </c>
+      <c r="R172">
+        <v>7</v>
+      </c>
+      <c r="S172">
+        <v>5</v>
+      </c>
+      <c r="T172">
+        <v>4</v>
+      </c>
       <c r="W172">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X172">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.3">
@@ -8899,9 +9079,39 @@
       <c r="D173" t="s">
         <v>3</v>
       </c>
+      <c r="E173">
+        <v>-5.5</v>
+      </c>
+      <c r="F173">
+        <v>-5.5</v>
+      </c>
+      <c r="M173">
+        <v>21</v>
+      </c>
+      <c r="N173">
+        <v>31</v>
+      </c>
+      <c r="O173">
+        <v>7</v>
+      </c>
+      <c r="P173">
+        <v>5</v>
+      </c>
+      <c r="Q173">
+        <v>5</v>
+      </c>
+      <c r="R173">
+        <v>5</v>
+      </c>
+      <c r="S173">
+        <v>16</v>
+      </c>
+      <c r="T173">
+        <v>8</v>
+      </c>
       <c r="W173">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X173">
         <f t="shared" si="5"/>
@@ -8921,13 +9131,43 @@
       <c r="D174" t="s">
         <v>7</v>
       </c>
+      <c r="E174">
+        <v>-5.5</v>
+      </c>
+      <c r="F174">
+        <v>-5.5</v>
+      </c>
+      <c r="M174">
+        <v>19</v>
+      </c>
+      <c r="N174">
+        <v>32</v>
+      </c>
+      <c r="O174">
+        <v>8</v>
+      </c>
+      <c r="P174">
+        <v>13</v>
+      </c>
+      <c r="Q174">
+        <v>4</v>
+      </c>
+      <c r="R174">
+        <v>7</v>
+      </c>
+      <c r="S174">
+        <v>9</v>
+      </c>
+      <c r="T174">
+        <v>7</v>
+      </c>
       <c r="W174">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X174">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.3">
@@ -8935,8 +9175,19 @@
         <v>18</v>
       </c>
       <c r="B175" s="1">
-        <f t="shared" ref="B167:B189" si="6">B174+2</f>
-        <v>45790</v>
+        <v>45793</v>
+      </c>
+      <c r="C175" t="s">
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175">
+        <v>-16.5</v>
+      </c>
+      <c r="F175">
+        <v>-16.5</v>
       </c>
       <c r="W175">
         <f t="shared" si="4"/>
@@ -8952,8 +9203,19 @@
         <v>18</v>
       </c>
       <c r="B176" s="1">
-        <f t="shared" si="6"/>
-        <v>45792</v>
+        <v>45793</v>
+      </c>
+      <c r="C176" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>-11.5</v>
+      </c>
+      <c r="F176">
+        <v>-10.5</v>
       </c>
       <c r="W176">
         <f t="shared" si="4"/>
@@ -8969,8 +9231,19 @@
         <v>18</v>
       </c>
       <c r="B177" s="1">
-        <f t="shared" si="6"/>
-        <v>45794</v>
+        <v>45793</v>
+      </c>
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>-12.5</v>
+      </c>
+      <c r="F177">
+        <v>-12.5</v>
       </c>
       <c r="W177">
         <f t="shared" si="4"/>
@@ -8986,8 +9259,19 @@
         <v>18</v>
       </c>
       <c r="B178" s="1">
-        <f t="shared" si="6"/>
-        <v>45796</v>
+        <v>45794</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178">
+        <v>-42.5</v>
+      </c>
+      <c r="F178">
+        <v>-33.5</v>
       </c>
       <c r="W178">
         <f t="shared" si="4"/>
@@ -9003,8 +9287,19 @@
         <v>18</v>
       </c>
       <c r="B179" s="1">
-        <f t="shared" si="6"/>
-        <v>45798</v>
+        <v>45794</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179">
+        <v>-5.5</v>
+      </c>
+      <c r="F179">
+        <v>-2.5</v>
       </c>
       <c r="W179">
         <f t="shared" si="4"/>
@@ -9020,8 +9315,19 @@
         <v>18</v>
       </c>
       <c r="B180" s="1">
-        <f t="shared" si="6"/>
-        <v>45800</v>
+        <v>45794</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180">
+        <v>2.5</v>
+      </c>
+      <c r="F180">
+        <v>2.5</v>
       </c>
       <c r="W180">
         <f t="shared" si="4"/>
@@ -9037,8 +9343,19 @@
         <v>18</v>
       </c>
       <c r="B181" s="1">
-        <f t="shared" si="6"/>
-        <v>45802</v>
+        <v>45794</v>
+      </c>
+      <c r="C181" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181">
+        <v>-12.5</v>
+      </c>
+      <c r="F181">
+        <v>-11.5</v>
       </c>
       <c r="W181">
         <f t="shared" si="4"/>
@@ -9054,8 +9371,19 @@
         <v>18</v>
       </c>
       <c r="B182" s="1">
-        <f t="shared" si="6"/>
-        <v>45804</v>
+        <v>45794</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182">
+        <v>-25.5</v>
+      </c>
+      <c r="F182">
+        <v>-22.5</v>
       </c>
       <c r="W182">
         <f t="shared" si="4"/>
@@ -9068,11 +9396,10 @@
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B183" s="1">
-        <f t="shared" si="6"/>
-        <v>45806</v>
+        <v>45801</v>
       </c>
       <c r="W183">
         <f t="shared" si="4"/>
@@ -9085,11 +9412,11 @@
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B184" s="1">
-        <f t="shared" si="6"/>
-        <v>45808</v>
+        <f t="shared" ref="B184:B185" si="6">B183+2</f>
+        <v>45803</v>
       </c>
       <c r="W184">
         <f t="shared" si="4"/>
@@ -9102,11 +9429,11 @@
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="6"/>
-        <v>45810</v>
+        <v>45805</v>
       </c>
       <c r="W185">
         <f t="shared" si="4"/>
@@ -9118,13 +9445,6 @@
       </c>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>18</v>
-      </c>
-      <c r="B186" s="1">
-        <f t="shared" si="6"/>
-        <v>45812</v>
-      </c>
       <c r="W186">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9135,73 +9455,52 @@
       </c>
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>19</v>
-      </c>
-      <c r="B187" s="1">
-        <f t="shared" si="6"/>
-        <v>45814</v>
-      </c>
       <c r="W187">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W187:W229" si="7">S187-T187</f>
         <v>0</v>
       </c>
       <c r="X187">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="X187:X229" si="8">R187-Q187</f>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>19</v>
-      </c>
-      <c r="B188" s="1">
-        <f t="shared" si="6"/>
-        <v>45816</v>
-      </c>
       <c r="W188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>20</v>
-      </c>
-      <c r="B189" s="1">
-        <f t="shared" si="6"/>
-        <v>45818</v>
-      </c>
       <c r="W189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W191">
-        <f t="shared" ref="W191:W233" si="7">S191-T191</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X191">
-        <f t="shared" ref="X191:X233" si="8">R191-Q191</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9581,46 +9880,6 @@
         <v>0</v>
       </c>
       <c r="X229">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="23:24" x14ac:dyDescent="0.3">
-      <c r="W230">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X230">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="23:24" x14ac:dyDescent="0.3">
-      <c r="W231">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X231">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="23:24" x14ac:dyDescent="0.3">
-      <c r="W232">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X232">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="23:24" x14ac:dyDescent="0.3">
-      <c r="W233">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X233">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>

--- a/rugby_results_urc_2024_2025.xlsx
+++ b/rugby_results_urc_2024_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\rugby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33454EB4-5237-42CF-8067-FCA70E386E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584E6140-72C0-4D4F-A7F6-F27438838BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F91CF1C2-8A5F-42AD-9533-1E11BD16044D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="77">
   <si>
     <t>Stormers</t>
   </si>
@@ -611,10 +611,10 @@
   <dimension ref="A1:AA229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E182" sqref="E182"/>
+      <selection pane="bottomRight" activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9189,13 +9189,37 @@
       <c r="F175">
         <v>-16.5</v>
       </c>
+      <c r="M175">
+        <v>34</v>
+      </c>
+      <c r="N175">
+        <v>24</v>
+      </c>
+      <c r="O175">
+        <v>16</v>
+      </c>
+      <c r="P175">
+        <v>10</v>
+      </c>
+      <c r="Q175">
+        <v>5</v>
+      </c>
+      <c r="R175">
+        <v>11</v>
+      </c>
+      <c r="S175">
+        <v>9</v>
+      </c>
+      <c r="T175">
+        <v>10</v>
+      </c>
       <c r="W175">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.3">
@@ -9217,13 +9241,37 @@
       <c r="F176">
         <v>-10.5</v>
       </c>
+      <c r="M176">
+        <v>47</v>
+      </c>
+      <c r="N176">
+        <v>17</v>
+      </c>
+      <c r="O176">
+        <v>15</v>
+      </c>
+      <c r="P176">
+        <v>4</v>
+      </c>
+      <c r="Q176">
+        <v>10</v>
+      </c>
+      <c r="R176">
+        <v>4</v>
+      </c>
+      <c r="S176">
+        <v>9</v>
+      </c>
+      <c r="T176">
+        <v>9</v>
+      </c>
       <c r="W176">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X176">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.3">
@@ -9245,6 +9293,30 @@
       <c r="F177">
         <v>-12.5</v>
       </c>
+      <c r="M177">
+        <v>30</v>
+      </c>
+      <c r="N177">
+        <v>21</v>
+      </c>
+      <c r="O177">
+        <v>8</v>
+      </c>
+      <c r="P177">
+        <v>10</v>
+      </c>
+      <c r="Q177">
+        <v>6</v>
+      </c>
+      <c r="R177">
+        <v>6</v>
+      </c>
+      <c r="S177">
+        <v>8</v>
+      </c>
+      <c r="T177">
+        <v>8</v>
+      </c>
       <c r="W177">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9273,13 +9345,37 @@
       <c r="F178">
         <v>-33.5</v>
       </c>
+      <c r="M178">
+        <v>55</v>
+      </c>
+      <c r="N178">
+        <v>15</v>
+      </c>
+      <c r="O178">
+        <v>15</v>
+      </c>
+      <c r="P178">
+        <v>6</v>
+      </c>
+      <c r="Q178">
+        <v>7</v>
+      </c>
+      <c r="R178">
+        <v>6</v>
+      </c>
+      <c r="S178">
+        <v>5</v>
+      </c>
+      <c r="T178">
+        <v>14</v>
+      </c>
       <c r="W178">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="X178">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.3">
@@ -9301,13 +9397,37 @@
       <c r="F179">
         <v>-2.5</v>
       </c>
+      <c r="M179">
+        <v>29</v>
+      </c>
+      <c r="N179">
+        <v>28</v>
+      </c>
+      <c r="O179">
+        <v>8</v>
+      </c>
+      <c r="P179">
+        <v>5</v>
+      </c>
+      <c r="Q179">
+        <v>8</v>
+      </c>
+      <c r="R179">
+        <v>5</v>
+      </c>
+      <c r="S179">
+        <v>8</v>
+      </c>
+      <c r="T179">
+        <v>9</v>
+      </c>
       <c r="W179">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.3">
@@ -9329,13 +9449,37 @@
       <c r="F180">
         <v>2.5</v>
       </c>
+      <c r="M180">
+        <v>12</v>
+      </c>
+      <c r="N180">
+        <v>22</v>
+      </c>
+      <c r="O180">
+        <v>12</v>
+      </c>
+      <c r="P180">
+        <v>12</v>
+      </c>
+      <c r="Q180">
+        <v>12</v>
+      </c>
+      <c r="R180">
+        <v>8</v>
+      </c>
+      <c r="S180">
+        <v>11</v>
+      </c>
+      <c r="T180">
+        <v>8</v>
+      </c>
       <c r="W180">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X180">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.3">
@@ -9357,13 +9501,37 @@
       <c r="F181">
         <v>-11.5</v>
       </c>
+      <c r="M181">
+        <v>12</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181">
+        <v>2</v>
+      </c>
+      <c r="P181">
+        <v>9</v>
+      </c>
+      <c r="Q181">
+        <v>8</v>
+      </c>
+      <c r="R181">
+        <v>10</v>
+      </c>
+      <c r="S181">
+        <v>6</v>
+      </c>
+      <c r="T181">
+        <v>17</v>
+      </c>
       <c r="W181">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="X181">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.3">
@@ -9385,13 +9553,37 @@
       <c r="F182">
         <v>-22.5</v>
       </c>
+      <c r="M182">
+        <v>13</v>
+      </c>
+      <c r="N182">
+        <v>5</v>
+      </c>
+      <c r="O182">
+        <v>5</v>
+      </c>
+      <c r="P182">
+        <v>5</v>
+      </c>
+      <c r="Q182">
+        <v>5</v>
+      </c>
+      <c r="R182">
+        <v>3</v>
+      </c>
+      <c r="S182">
+        <v>6</v>
+      </c>
+      <c r="T182">
+        <v>8</v>
+      </c>
       <c r="W182">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X182">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.3">
@@ -9399,7 +9591,13 @@
         <v>19</v>
       </c>
       <c r="B183" s="1">
-        <v>45801</v>
+        <v>45807</v>
+      </c>
+      <c r="C183" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" t="s">
+        <v>0</v>
       </c>
       <c r="W183">
         <f t="shared" si="4"/>
@@ -9415,8 +9613,13 @@
         <v>19</v>
       </c>
       <c r="B184" s="1">
-        <f t="shared" ref="B184:B185" si="6">B183+2</f>
-        <v>45803</v>
+        <v>45808</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3</v>
       </c>
       <c r="W184">
         <f t="shared" si="4"/>
@@ -9429,11 +9632,16 @@
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B185" s="1">
-        <f t="shared" si="6"/>
-        <v>45805</v>
+        <v>45808</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
       </c>
       <c r="W185">
         <f t="shared" si="4"/>
@@ -9445,6 +9653,18 @@
       </c>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>19</v>
+      </c>
+      <c r="B186" s="1">
+        <v>45808</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" t="s">
+        <v>11</v>
+      </c>
       <c r="W186">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9455,432 +9675,438 @@
       </c>
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>20</v>
+      </c>
       <c r="W187">
-        <f t="shared" ref="W187:W229" si="7">S187-T187</f>
+        <f t="shared" ref="W187:W229" si="6">S187-T187</f>
         <v>0</v>
       </c>
       <c r="X187">
-        <f t="shared" ref="X187:X229" si="8">R187-Q187</f>
+        <f t="shared" ref="X187:X229" si="7">R187-Q187</f>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>20</v>
+      </c>
       <c r="W188">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X188">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X188">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W189">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X189">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X189">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W190">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X190">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X190">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W191">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X191">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X191">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W192">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X192">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X192">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W193">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X193">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X193">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W194">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X194">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X194">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W195">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X195">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X195">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W196">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X196">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X196">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W197">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X197">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X197">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W198">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X198">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X198">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X199">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X199">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X200">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X200">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W201">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X201">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X201">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W202">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X202">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X202">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W203">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X203">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X203">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W204">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X204">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X204">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W205">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X205">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X205">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W206">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X206">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X206">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W207">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X207">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X207">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W208">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X208">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W209">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X209">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X209">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W210">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X210">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X210">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W211">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X211">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X211">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W212">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X212">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X212">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W213">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X213">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X213">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W214">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X214">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X215">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X215">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W216">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X216">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X216">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W217">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X217">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X217">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W218">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X218">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X218">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W219">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X219">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X219">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W220">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X220">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W221">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X221">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X221">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W222">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X222">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X222">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W223">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X223">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X223">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W224">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X224">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X224">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W225">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X225">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X225">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W226">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X226">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X226">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W227">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X227">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X227">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W228">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X228">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X228">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W229">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X229">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X229">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>

--- a/rugby_results_urc_2024_2025.xlsx
+++ b/rugby_results_urc_2024_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\rugby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584E6140-72C0-4D4F-A7F6-F27438838BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301FE435-CB55-4BA8-99F2-106AB4974904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F91CF1C2-8A5F-42AD-9533-1E11BD16044D}"/>
   </bookViews>
@@ -614,7 +614,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E184" sqref="E184"/>
+      <selection pane="bottomRight" activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9599,6 +9599,12 @@
       <c r="D183" t="s">
         <v>0</v>
       </c>
+      <c r="E183">
+        <v>-6.5</v>
+      </c>
+      <c r="F183">
+        <v>-6.5</v>
+      </c>
       <c r="W183">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9621,6 +9627,12 @@
       <c r="D184" t="s">
         <v>3</v>
       </c>
+      <c r="E184">
+        <v>-17.5</v>
+      </c>
+      <c r="F184">
+        <v>-17.5</v>
+      </c>
       <c r="W184">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9643,6 +9655,12 @@
       <c r="D185" t="s">
         <v>7</v>
       </c>
+      <c r="E185">
+        <v>-23.5</v>
+      </c>
+      <c r="F185">
+        <v>-23.5</v>
+      </c>
       <c r="W185">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9664,6 +9682,12 @@
       </c>
       <c r="D186" t="s">
         <v>11</v>
+      </c>
+      <c r="E186">
+        <v>-6.5</v>
+      </c>
+      <c r="F186">
+        <v>-6.5</v>
       </c>
       <c r="W186">
         <f t="shared" si="4"/>

--- a/rugby_results_urc_2024_2025.xlsx
+++ b/rugby_results_urc_2024_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\rugby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301FE435-CB55-4BA8-99F2-106AB4974904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC326610-843F-4B8B-8881-32E863B940B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F91CF1C2-8A5F-42AD-9533-1E11BD16044D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="77">
   <si>
     <t>Stormers</t>
   </si>
@@ -611,10 +611,10 @@
   <dimension ref="A1:AA229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E183" sqref="E183"/>
+      <selection pane="bottomRight" activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9600,18 +9600,42 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>-6.5</v>
+        <v>-5.5</v>
       </c>
       <c r="F183">
         <v>-6.5</v>
       </c>
+      <c r="M183">
+        <v>36</v>
+      </c>
+      <c r="N183">
+        <v>18</v>
+      </c>
+      <c r="O183">
+        <v>17</v>
+      </c>
+      <c r="P183">
+        <v>5</v>
+      </c>
+      <c r="Q183">
+        <v>6</v>
+      </c>
+      <c r="R183">
+        <v>5</v>
+      </c>
+      <c r="S183">
+        <v>16</v>
+      </c>
+      <c r="T183">
+        <v>4</v>
+      </c>
       <c r="W183">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X183">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.3">
@@ -9633,6 +9657,30 @@
       <c r="F184">
         <v>-17.5</v>
       </c>
+      <c r="M184">
+        <v>42</v>
+      </c>
+      <c r="N184">
+        <v>33</v>
+      </c>
+      <c r="O184">
+        <v>10</v>
+      </c>
+      <c r="P184">
+        <v>12</v>
+      </c>
+      <c r="Q184">
+        <v>7</v>
+      </c>
+      <c r="R184">
+        <v>7</v>
+      </c>
+      <c r="S184">
+        <v>10</v>
+      </c>
+      <c r="T184">
+        <v>10</v>
+      </c>
       <c r="W184">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9661,13 +9709,37 @@
       <c r="F185">
         <v>-23.5</v>
       </c>
+      <c r="M185">
+        <v>33</v>
+      </c>
+      <c r="N185">
+        <v>21</v>
+      </c>
+      <c r="O185">
+        <v>12</v>
+      </c>
+      <c r="P185">
+        <v>7</v>
+      </c>
+      <c r="Q185">
+        <v>5</v>
+      </c>
+      <c r="R185">
+        <v>6</v>
+      </c>
+      <c r="S185">
+        <v>9</v>
+      </c>
+      <c r="T185">
+        <v>11</v>
+      </c>
       <c r="W185">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X185">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.3">
@@ -9689,9 +9761,33 @@
       <c r="F186">
         <v>-6.5</v>
       </c>
+      <c r="M186">
+        <v>24</v>
+      </c>
+      <c r="N186">
+        <v>24</v>
+      </c>
+      <c r="O186">
+        <v>11</v>
+      </c>
+      <c r="P186">
+        <v>8</v>
+      </c>
+      <c r="Q186">
+        <v>5</v>
+      </c>
+      <c r="R186">
+        <v>5</v>
+      </c>
+      <c r="S186">
+        <v>6</v>
+      </c>
+      <c r="T186">
+        <v>13</v>
+      </c>
       <c r="W186">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="X186">
         <f t="shared" si="5"/>
@@ -9702,9 +9798,48 @@
       <c r="A187">
         <v>20</v>
       </c>
+      <c r="B187" s="1">
+        <v>45815</v>
+      </c>
+      <c r="C187" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187">
+        <v>-13.5</v>
+      </c>
+      <c r="F187">
+        <v>-13.5</v>
+      </c>
+      <c r="M187">
+        <v>37</v>
+      </c>
+      <c r="N187">
+        <v>19</v>
+      </c>
+      <c r="O187">
+        <v>13</v>
+      </c>
+      <c r="P187">
+        <v>7</v>
+      </c>
+      <c r="Q187">
+        <v>6</v>
+      </c>
+      <c r="R187">
+        <v>6</v>
+      </c>
+      <c r="S187">
+        <v>7</v>
+      </c>
+      <c r="T187">
+        <v>13</v>
+      </c>
       <c r="W187">
         <f t="shared" ref="W187:W229" si="6">S187-T187</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="X187">
         <f t="shared" ref="X187:X229" si="7">R187-Q187</f>
@@ -9715,9 +9850,48 @@
       <c r="A188">
         <v>20</v>
       </c>
+      <c r="B188" s="1">
+        <v>45815</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188">
+        <v>-8.5</v>
+      </c>
+      <c r="F188">
+        <v>-8.5</v>
+      </c>
+      <c r="M188">
+        <v>25</v>
+      </c>
+      <c r="N188">
+        <v>13</v>
+      </c>
+      <c r="O188">
+        <v>8</v>
+      </c>
+      <c r="P188">
+        <v>13</v>
+      </c>
+      <c r="Q188">
+        <v>6</v>
+      </c>
+      <c r="R188">
+        <v>6</v>
+      </c>
+      <c r="S188">
+        <v>9</v>
+      </c>
+      <c r="T188">
+        <v>11</v>
+      </c>
       <c r="W188">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X188">
         <f t="shared" si="7"/>
@@ -9725,6 +9899,24 @@
       </c>
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>21</v>
+      </c>
+      <c r="B189" s="1">
+        <v>45822</v>
+      </c>
+      <c r="C189" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189">
+        <v>-12.5</v>
+      </c>
+      <c r="F189">
+        <v>-11.5</v>
+      </c>
       <c r="W189">
         <f t="shared" si="6"/>
         <v>0</v>
